--- a/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>UFPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,230 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1032100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>998000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1163000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2254900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1015100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>988200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1212700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1294400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>993900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>966100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1056600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1918500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>846100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>859600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>826700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>864800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>840800</v>
+      </c>
+      <c r="F9" s="3">
         <v>975800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1914000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>860900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>850500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1054000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1128800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>863000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>836900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>911900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1649500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>725400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>737300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>167300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>157200</v>
+      </c>
+      <c r="F10" s="3">
         <v>187200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>341000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>154200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>137700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>158700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>165600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>130900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>129200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>144700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>269000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>120700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>122300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,8 +905,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +951,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +1001,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1051,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1101,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>973400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>946300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1092600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2132300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>966700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>942700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1155700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1233800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>949600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>924600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1004300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1830800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>812300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>824300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>783100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>51700</v>
+      </c>
+      <c r="F18" s="3">
         <v>70400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>122600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>48400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>45500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>57000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>60600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>44300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>41500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>52300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>87700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>33800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>35300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,96 +1242,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>700</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="M20" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>71000</v>
+      </c>
+      <c r="F21" s="3">
         <v>88100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>157100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>66400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>60400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>73100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>75700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>58900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>55500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>66300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>113800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>46400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>48200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>54100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1274,131 +1353,149 @@
         <v>1900</v>
       </c>
       <c r="E22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G22" s="3">
         <v>4900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3300</v>
       </c>
       <c r="N22" s="3">
         <v>1500</v>
       </c>
       <c r="O22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>51600</v>
+      </c>
+      <c r="F23" s="3">
         <v>69000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>120100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>47600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>40900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>55300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>58600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>43200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>40300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>50900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>84800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>32400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>34100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F24" s="3">
         <v>16400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>28900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>11600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>17300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>13200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>13400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>9600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>16300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>28600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>11900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>38700</v>
+      </c>
+      <c r="F26" s="3">
         <v>52600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>91100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>36000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>23600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>42100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>45100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>33600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>43500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>34700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>56200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>21600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>22200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>36800</v>
+      </c>
+      <c r="F27" s="3">
         <v>50600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>87800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>34700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>21800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>40300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>43000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>32100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>40800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>33000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>53700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>20700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>20400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1688,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1587,26 +1708,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>8000</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>8000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>-10300</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>-10300</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1617,8 +1738,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1838,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-700</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="M32" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>36800</v>
+      </c>
+      <c r="F33" s="3">
         <v>50600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>87800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>34700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>29800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>40300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>43000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>32100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>30500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>33000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>53700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>20700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>20400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>36800</v>
+      </c>
+      <c r="F35" s="3">
         <v>50600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>87800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>34700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>29800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>40300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>43000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>32100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>30500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>33000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>53700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>20700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>20400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,272 +2137,310 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>168300</v>
+      </c>
+      <c r="F41" s="3">
         <v>64500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>20500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>17100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>27300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>26300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>27500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>25300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>28300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>22000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>24600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>31000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>34100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F42" s="3">
         <v>17000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>16800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>16200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>14800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>15800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>14500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>10700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>11300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>10800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>10400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>5900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>10300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>469200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>382000</v>
+      </c>
+      <c r="F43" s="3">
         <v>483000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>489600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>456600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>364500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>469200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>497000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>432800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>335000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>422500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>398500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>368800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>293700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>351200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>510700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>486900</v>
+      </c>
+      <c r="F44" s="3">
         <v>479400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>528700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>580200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>556200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>510100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>531900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>521700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>460300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>412500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>438400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>472000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>397200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>369900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F45" s="3">
         <v>48200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>41600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>33400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>32500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>25400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>41700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>53200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>28600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>20700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>22900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>21600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>21100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1060900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1093100</v>
+      </c>
+      <c r="F46" s="3">
         <v>1092100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1097100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1103500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>995300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1046900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1112600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1043700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>863500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>888600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>894900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>899300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>756400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>790800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,96 +2483,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>478600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>467300</v>
+      </c>
+      <c r="F48" s="3">
         <v>460400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>439200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>422300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>354700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>346300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>340700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>313600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>328600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>325100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>316000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>309900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>297900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>284500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>285200</v>
+      </c>
+      <c r="F49" s="3">
         <v>286600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>273800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>271300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>273000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>261700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>263000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>254500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>255000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>255700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>253500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>250200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>227600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>224200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,52 +2683,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>43900</v>
+      </c>
+      <c r="F52" s="3">
         <v>41500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>40500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>24400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>24600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>22300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>20300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>19600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>17600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>17500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>17700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>18300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>10200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2783,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1883000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1889500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1880600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1850700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1821400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1647500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1677200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1736600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1631500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1464700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1486900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1482000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1477700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1292100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1310600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,272 +2877,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>142500</v>
+      </c>
+      <c r="F57" s="3">
         <v>180800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>189600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>170700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>136900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>175900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>197400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>176500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>140100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>171800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>160300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>156000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>124700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>25100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>18900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>27500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>31300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>34200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>30500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>27200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>28800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>25100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>23800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>22400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>164400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>208700</v>
+      </c>
+      <c r="F59" s="3">
         <v>204500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>164800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>131000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>145800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>151100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>138800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>106200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>136000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>138400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>126200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>98000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>124700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>329300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>354000</v>
+      </c>
+      <c r="F60" s="3">
         <v>385400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>379600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>320600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>310200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>358300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>370400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>313100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>303200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>339000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>311600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>277800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>271800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>310200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>160600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>160900</v>
+      </c>
+      <c r="F61" s="3">
         <v>162900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>187500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>266400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>202100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>186500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>276300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>261300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>144700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>145900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>204800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>252900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>109100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>116800</v>
+      </c>
+      <c r="F62" s="3">
         <v>103200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>100300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>96000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>46600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>40600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>42300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>40100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>42700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>52000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>49300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>49600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>50800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3323,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>622300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>645800</v>
+      </c>
+      <c r="F66" s="3">
         <v>665200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>683300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>698500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>574100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>601100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>704100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>629900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>505200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>551100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>580300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>593100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>442900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>473700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3593,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>999000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>995000</v>
+      </c>
+      <c r="F72" s="3">
         <v>969600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>917700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>875500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>839900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>841400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>800200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>768200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>736200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>715500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>684800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>670100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>649100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>637500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3793,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1260700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1243700</v>
+      </c>
+      <c r="F76" s="3">
         <v>1215500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1167400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1122900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1073400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1076100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1032500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1001600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>959500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>935800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>901700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>884500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>849200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>837000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>36800</v>
+      </c>
+      <c r="F81" s="3">
         <v>50600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>87800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>34700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>29800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>40300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>43000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>32100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>30500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>33000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>53700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>20700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>20400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +4022,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F83" s="3">
         <v>17200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>32100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>16300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>16600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>15900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>14900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>13900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>13800</v>
       </c>
       <c r="L83" s="3">
         <v>13900</v>
       </c>
       <c r="M83" s="3">
+        <v>13800</v>
+      </c>
+      <c r="N83" s="3">
+        <v>13900</v>
+      </c>
+      <c r="O83" s="3">
         <v>25600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>12500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>12700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>151200</v>
+      </c>
+      <c r="F89" s="3">
         <v>127100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>70900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-55800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>56600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>96200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>48100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-84200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>39200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>82100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>15200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-70700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>36100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-23900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-42500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-15900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-21300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-20200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-30000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-24400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-13900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-22600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-34500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-16500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-71800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-58200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-47700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-15600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-35600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-22500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-64400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-16300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-21500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-99900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-70600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-27000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-170800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,13 +4612,15 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-7700</v>
       </c>
       <c r="E96" s="3">
         <v>-12300</v>
@@ -4162,25 +4629,25 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-11000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-10400</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-9200</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
@@ -4191,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,136 +4808,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-25000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-30300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>61100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-19400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-91000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>111600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-16500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-63300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>74500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>141700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-10800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-135800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>103400</v>
+      </c>
+      <c r="F102" s="3">
         <v>43700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-10100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-16900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-13500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>28900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>5900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-9000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-50800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>UFPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1242000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1032100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>998000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1163000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2254900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1015100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>988200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1212700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1294400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>993900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>966100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1056600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1918500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>846100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>859600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>826700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1037100</v>
+      </c>
+      <c r="E9" s="3">
         <v>864800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>840800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>975800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1914000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>860900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>850500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1054000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1128800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>863000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>836900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>911900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1649500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>725400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>737300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>204900</v>
+      </c>
+      <c r="E10" s="3">
         <v>167300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>157200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>187200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>341000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>154200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>137700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>158700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>165600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>130900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>129200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>144700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>269000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>120700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>122300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1149600</v>
+      </c>
+      <c r="E17" s="3">
         <v>973400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>946300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1092600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2132300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>966700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>942700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1155700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1233800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>949600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>924600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1004300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1830800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>812300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>824300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>783100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E18" s="3">
         <v>58700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>51700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>70400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>122600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>48400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>45500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>57000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>60600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>44300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>41500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>52300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>87700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>33800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>35300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,49 +1277,50 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
       </c>
       <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
@@ -1294,58 +1328,64 @@
       <c r="R20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E21" s="3">
         <v>73100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>71000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>88100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>157100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>66400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>60400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>73100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>75700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>58900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>55500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>66300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>113800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>46400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>48200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>54100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1359,143 +1399,152 @@
         <v>1900</v>
       </c>
       <c r="G22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H22" s="3">
         <v>4900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E23" s="3">
         <v>53900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>51600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>69000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>120100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>47600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>40900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>55300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>58600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>43200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>40300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>50900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>84800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>32400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>34100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E24" s="3">
         <v>13300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>28900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E26" s="3">
         <v>40600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>38700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>52600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>91100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>23600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>42100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>45100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>33600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>43500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>34700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>56200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>21600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>22200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E27" s="3">
         <v>39100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>36800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>50600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>87800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>34700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>40300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>40800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>33000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>53700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>20700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>20400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1714,11 +1775,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>8000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1726,11 +1787,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,49 +1911,52 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
       </c>
       <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
@@ -1894,58 +1964,64 @@
       <c r="R32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E33" s="3">
         <v>39100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>36800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>50600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>87800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>34700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>29800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>40300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>33000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>53700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E35" s="3">
         <v>39100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>36800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>50600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>87800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>34700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>29800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>40300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>32100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>33000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>53700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,308 +2225,327 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200500</v>
+      </c>
+      <c r="E41" s="3">
         <v>32100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>168300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>64500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>26300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>31000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>34100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E42" s="3">
         <v>17800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>18500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>17000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>15800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>527300</v>
+      </c>
+      <c r="E43" s="3">
         <v>469200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>382000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>483000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>489600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>456600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>364500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>469200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>497000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>432800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>335000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>422500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>398500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>368800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>293700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>351200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>459400</v>
+      </c>
+      <c r="E44" s="3">
         <v>510700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>486900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>479400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>528700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>580200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>556200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>510100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>531900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>521700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>460300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>412500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>438400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>472000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>397200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>369900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E45" s="3">
         <v>31100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>48200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>41600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>33400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>25400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>41700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>53200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>22900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1236600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1060900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1093100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1092100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1097100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1103500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>995300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1046900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1112600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1043700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>863500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>888600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>894900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>899300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>756400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>790800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,8 +2594,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2498,49 +2606,52 @@
         <v>478600</v>
       </c>
       <c r="E48" s="3">
+        <v>478600</v>
+      </c>
+      <c r="F48" s="3">
         <v>467300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>460400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>439200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>422300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>354700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>346300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>340700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>313600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>328600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>325100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>316000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>309900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>297900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>284500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2548,49 +2659,52 @@
         <v>300000</v>
       </c>
       <c r="E49" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F49" s="3">
         <v>285200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>286600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>273800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>271300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>273000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>261700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>263000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>254500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>255000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>255700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>253500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>250200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>227600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>224200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,58 +2806,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E52" s="3">
         <v>43500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>43900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>41500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>40500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2058600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1883000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1889500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1880600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1850700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1821400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1647500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1677200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1736600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1631500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1464700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1486900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1482000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1477700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1292100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1310600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,308 +3009,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>199300</v>
+      </c>
+      <c r="E57" s="3">
         <v>162000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>142500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>180800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>189600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>170700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>136900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>175900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>197400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>176500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>140100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>171800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>160300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>156000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>124700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>2800</v>
       </c>
       <c r="F58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>25100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>27500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>31300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>34200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>30500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>27200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>28800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>25100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>22400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>235900</v>
+      </c>
+      <c r="E59" s="3">
         <v>164400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>208700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>204500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>164800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>131000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>145800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>151100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>138800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>106200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>136000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>138400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>126200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>98000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>124700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>435200</v>
+      </c>
+      <c r="E60" s="3">
         <v>329300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>354000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>385400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>379600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>320600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>310200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>358300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>370400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>313100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>303200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>339000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>311600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>277800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>271800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>310200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>161100</v>
+      </c>
+      <c r="E61" s="3">
         <v>160600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>160900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>162900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>187500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>266400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>202100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>186500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>276300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>261300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>144700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>145900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>204800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>252900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>109100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E62" s="3">
         <v>120900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>116800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>103200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>96000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>46600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>40600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>42300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>52000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>49300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>49600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>734200</v>
+      </c>
+      <c r="E66" s="3">
         <v>622300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>645800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>665200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>683300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>698500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>574100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>601100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>704100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>629900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>505200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>551100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>580300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>593100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>442900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>473700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1057800</v>
+      </c>
+      <c r="E72" s="3">
         <v>999000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>995000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>969600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>917700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>875500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>839900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>841400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>800200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>768200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>736200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>715500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>684800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>670100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>649100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>637500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1324400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1260700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1243700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1215500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1167400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1122900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1073400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1076100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1032500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1001600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>959500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>935800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>901700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>884500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>849200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>837000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E81" s="3">
         <v>39100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>36800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>50600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>87800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>34700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>29800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>40300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>32100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>33000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>53700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E83" s="3">
         <v>17300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>32100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>25600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>193400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-46200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>151200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>127100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>70900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-55800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>56600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>96200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>48100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-84200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>39200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>82100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-70700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>36100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-42500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-30000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-71800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-48200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-36100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-58200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-47700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-64400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-99900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-70600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-27000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-170800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,32 +4847,33 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-12300</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-12300</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-11000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4647,25 +4881,28 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-10400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-9200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-9200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,154 +5057,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-39700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-30300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>61100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-91000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>111600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-63300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>74500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>141700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>168400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-135800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>103400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>43700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-16900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-50800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>UFPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1242000</v>
+        <v>1486200</v>
       </c>
       <c r="E8" s="3">
+        <v>2274100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1032100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>998000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1163000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2254900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1015100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>988200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1212700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1294400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>993900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>966100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1056600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1918500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>846100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>859600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>826700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1037100</v>
+        <v>1245200</v>
       </c>
       <c r="E9" s="3">
+        <v>1901900</v>
+      </c>
+      <c r="F9" s="3">
         <v>864800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>840800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>975800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1914000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>860900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>850500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1054000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1128800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>863000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>836900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>911900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1649500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>725400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>737300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>204900</v>
+        <v>241000</v>
       </c>
       <c r="E10" s="3">
+        <v>372200</v>
+      </c>
+      <c r="F10" s="3">
         <v>167300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>157200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>187200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>341000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>154200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>137700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>158700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>165600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>130900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>129200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>144700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>269000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>120700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>122300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1149600</v>
+        <v>1379600</v>
       </c>
       <c r="E17" s="3">
+        <v>2123100</v>
+      </c>
+      <c r="F17" s="3">
         <v>973400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>946300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1092600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2132300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>966700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>942700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1155700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1233800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>949600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>924600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1004300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1830800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>812300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>824300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>783100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>92400</v>
+        <v>106600</v>
       </c>
       <c r="E18" s="3">
+        <v>151000</v>
+      </c>
+      <c r="F18" s="3">
         <v>58700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>51700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>70400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>122600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>48400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>45500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>57000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>60600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>44300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>41500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>52300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>87700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>33800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>35300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,52 +1311,53 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2900</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
       </c>
       <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
@@ -1331,69 +1365,75 @@
       <c r="S20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>112400</v>
+        <v>126800</v>
       </c>
       <c r="E21" s="3">
+        <v>185500</v>
+      </c>
+      <c r="F21" s="3">
         <v>73100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>71000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>88100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>157100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>66400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>60400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>73100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>75700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>58900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>55500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>66300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>113800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>46400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>48200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>54100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="E22" s="3">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="F22" s="3">
         <v>1900</v>
@@ -1402,149 +1442,158 @@
         <v>1900</v>
       </c>
       <c r="H22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I22" s="3">
         <v>4900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>93400</v>
+        <v>105700</v>
       </c>
       <c r="E23" s="3">
+        <v>147200</v>
+      </c>
+      <c r="F23" s="3">
         <v>53900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>51600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>69000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>120100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>47600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>40900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>55300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>58600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>43200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>40300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>50900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>84800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>32400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>34100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23700</v>
+        <v>26800</v>
       </c>
       <c r="E24" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F24" s="3">
         <v>13300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>69700</v>
+        <v>78900</v>
       </c>
       <c r="E26" s="3">
+        <v>110300</v>
+      </c>
+      <c r="F26" s="3">
         <v>40600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>38700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>52600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>91100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>36000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>23600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>42100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>45100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>33600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>43500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>34700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>56200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>21600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>64600</v>
+        <v>75000</v>
       </c>
       <c r="E27" s="3">
+        <v>103700</v>
+      </c>
+      <c r="F27" s="3">
         <v>39100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>50600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>87800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>34700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>40300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>40800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>33000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>53700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>20700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>20400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1778,11 +1839,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>8000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1790,11 +1851,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,52 +1981,55 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2900</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
       </c>
       <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
@@ -1967,61 +2037,67 @@
       <c r="S32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>64600</v>
+        <v>75000</v>
       </c>
       <c r="E33" s="3">
+        <v>103700</v>
+      </c>
+      <c r="F33" s="3">
         <v>39100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>36800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>50600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>87800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>34700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>29800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>40300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>30500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>33000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>53700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>64600</v>
+        <v>75000</v>
       </c>
       <c r="E35" s="3">
+        <v>103700</v>
+      </c>
+      <c r="F35" s="3">
         <v>39100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>36800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>50600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>87800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>34700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>29800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>40300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>30500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>33000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>53700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,326 +2312,345 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>346200</v>
+      </c>
+      <c r="E41" s="3">
         <v>200500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>168300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>64500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>31000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>34100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E42" s="3">
         <v>19200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>17800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>18500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>17000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>16200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>587200</v>
+      </c>
+      <c r="E43" s="3">
         <v>527300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>469200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>382000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>483000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>489600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>456600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>364500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>469200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>497000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>432800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>335000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>422500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>398500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>368800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>293700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>351200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>528700</v>
+      </c>
+      <c r="E44" s="3">
         <v>459400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>510700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>486900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>479400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>528700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>580200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>556200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>510100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>531900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>521700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>460300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>412500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>438400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>472000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>397200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>369900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E45" s="3">
         <v>30100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>37300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>48200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>41600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>33400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>41700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>53200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1512100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1236600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1060900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1093100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1092100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1097100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1103500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>995300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1046900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1112600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1043700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>863500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>888600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>894900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>899300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>756400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>790800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,114 +2702,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>478600</v>
+        <v>483400</v>
       </c>
       <c r="E48" s="3">
         <v>478600</v>
       </c>
       <c r="F48" s="3">
+        <v>478600</v>
+      </c>
+      <c r="G48" s="3">
         <v>467300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>460400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>439200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>422300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>354700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>346300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>340700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>313600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>328600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>325100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>316000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>309900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>297900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>284500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300000</v>
+        <v>311500</v>
       </c>
       <c r="E49" s="3">
         <v>300000</v>
       </c>
       <c r="F49" s="3">
+        <v>300000</v>
+      </c>
+      <c r="G49" s="3">
         <v>285200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>286600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>273800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>271300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>273000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>261700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>263000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>254500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>255000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>255700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>253500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>250200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>227600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>224200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,61 +2926,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E52" s="3">
         <v>43400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>43500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>43900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>41500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>40500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2350600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2058600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1883000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1889500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1880600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1850700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1821400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1647500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1677200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1736600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1631500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1464700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1486900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1482000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1477700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1292100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1310600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,66 +3140,70 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>231100</v>
+      </c>
+      <c r="E57" s="3">
         <v>199300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>162000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>142500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>180800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>189600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>170700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>136900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>175900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>197400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>176500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>140100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>171800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>160300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>156000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>124700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E58" s="3">
         <v>2800</v>
@@ -3078,258 +3212,273 @@
         <v>2800</v>
       </c>
       <c r="G58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>25100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>18900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>27500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>31300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>34200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>30500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>27200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>28800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>25100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>23800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>22400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>235900</v>
+        <v>259700</v>
       </c>
       <c r="E59" s="3">
+        <v>233100</v>
+      </c>
+      <c r="F59" s="3">
         <v>164400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>208700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>204500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>164800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>131000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>145800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>151100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>138800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>106200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>136000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>138400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>126200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>98000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>124700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>493600</v>
+      </c>
+      <c r="E60" s="3">
         <v>435200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>329300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>354000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>385400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>379600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>320600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>310200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>358300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>370400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>313100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>303200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>339000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>311600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>277800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>271800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>310200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>311300</v>
+      </c>
+      <c r="E61" s="3">
         <v>161100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>160600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>160900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>162900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>187500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>266400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>202100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>186500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>276300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>261300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>144700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>145900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>204800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>252900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>109100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>131900</v>
+      </c>
+      <c r="E62" s="3">
         <v>123000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>120900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>116800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>103200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>96000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>40600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>42300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>52000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>49300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>49600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>50800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>953000</v>
+      </c>
+      <c r="E66" s="3">
         <v>734200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>622300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>645800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>665200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>683300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>698500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>574100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>601100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>704100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>629900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>505200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>551100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>580300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>593100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>442900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>473700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1127400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1057800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>999000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>995000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>969600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>917700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>875500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>839900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>841400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>800200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>768200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>736200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>715500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>684800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>670100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>649100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>637500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1397600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1324400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1260700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1243700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1215500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1167400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1122900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1073400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1076100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1032500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1001600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>959500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>935800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>901700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>884500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>849200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>837000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>64600</v>
+        <v>75000</v>
       </c>
       <c r="E81" s="3">
+        <v>103700</v>
+      </c>
+      <c r="F81" s="3">
         <v>39100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>36800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>50600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>87800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>34700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>29800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>40300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>30500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>33000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>53700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>34500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>17300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>17500</v>
+      </c>
+      <c r="H83" s="3">
         <v>17200</v>
       </c>
-      <c r="E83" s="3">
-        <v>17300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>17500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>17200</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>32100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>25600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>193400</v>
+        <v>37900</v>
       </c>
       <c r="E89" s="3">
+        <v>147200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-46200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>151200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>127100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>70900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-55800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>56600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>96200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>48100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-84200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>39200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>82100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-70700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>36100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19400</v>
+        <v>-20300</v>
       </c>
       <c r="E91" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-27300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-42500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-71800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18000</v>
+        <v>-34700</v>
       </c>
       <c r="E94" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-48200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-58200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-47700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-64400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-99900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-70600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-27000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-170800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4857,26 +5091,26 @@
         <v>-7600</v>
       </c>
       <c r="E96" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-7700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-12300</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-12300</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-11000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4884,25 +5118,28 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-10400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-9200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7200</v>
+        <v>142200</v>
       </c>
       <c r="E100" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-39700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-25000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-30300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>61100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-91000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>111600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-63300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>74500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>141700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5122,101 +5371,107 @@
         <v>300</v>
       </c>
       <c r="E101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>168400</v>
+        <v>145600</v>
       </c>
       <c r="E102" s="3">
+        <v>32600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-135800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>103400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>43700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-50800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>UFPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,268 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1393700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1486200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2274100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1032100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>998000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1163000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2254900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1015100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>988200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1212700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1294400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>993900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>966100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1056600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1918500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>846100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>859600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>826700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1206700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1245200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1901900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>864800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>840800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>975800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1914000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>860900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>850500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1054000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1128800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>863000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>836900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>911900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1649500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>725400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>737300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E10" s="3">
         <v>241000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>372200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>167300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>157200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>187200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>341000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>154200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>137700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>158700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>165600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>130900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>129200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>144700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>269000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>120700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>122300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1063,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1122,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1305500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1379600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2123100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>973400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>946300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1092600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2132300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>966700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>942700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1155700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1233800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>949600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>924600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1004300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1830800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>812300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>824300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>783100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E18" s="3">
         <v>106600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>151000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>58700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>51700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>70400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>122600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>48400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>45500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>57000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>60600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>44300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>41500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>52300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>87700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>35300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,55 +1344,56 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>200</v>
+      </c>
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
@@ -1368,75 +1401,81 @@
       <c r="T20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E21" s="3">
         <v>126800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>185500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>73100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>71000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>88100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>157100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>66400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>60400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>73100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>75700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>58900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>55500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>66300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>113800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>46400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>48200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>54100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1900</v>
       </c>
       <c r="G22" s="3">
         <v>1900</v>
@@ -1445,155 +1484,164 @@
         <v>1900</v>
       </c>
       <c r="I22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J22" s="3">
         <v>4900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E23" s="3">
         <v>105700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>147200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>53900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>51600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>69000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>120100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>47600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>40900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>55300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>58600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>43200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>40300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>50900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>84800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>34100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E24" s="3">
         <v>26800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>37000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E26" s="3">
         <v>78900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>110300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>40600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>38700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>52600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>91100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>36000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>42100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>45100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>33600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>43500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>34700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>56200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>21600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>22200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E27" s="3">
         <v>75000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>103700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>39100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>50600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>87800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>34700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>40300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>40800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>33000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>53700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>20700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1842,11 +1902,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>8000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1854,11 +1914,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,55 +2050,58 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
@@ -2040,64 +2109,70 @@
       <c r="T32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E33" s="3">
         <v>75000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>103700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>39100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>50600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>87800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>34700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>29800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>40300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>30500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>33000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>53700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E35" s="3">
         <v>75000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>103700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>39100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>50600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>87800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>34700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>29800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>40300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>30500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>33000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>53700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,344 +2398,363 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>436500</v>
+      </c>
+      <c r="E41" s="3">
         <v>346200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>168300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>64500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>25300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>31000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>34100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E42" s="3">
         <v>20500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>19200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>17800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>18500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>17000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>16800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>16200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>480500</v>
+      </c>
+      <c r="E43" s="3">
         <v>587200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>527300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>469200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>382000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>483000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>489600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>456600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>364500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>469200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>497000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>432800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>335000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>422500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>398500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>368800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>293700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>351200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>567300</v>
+      </c>
+      <c r="E44" s="3">
         <v>528700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>459400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>510700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>486900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>479400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>528700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>580200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>556200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>510100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>531900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>521700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>460300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>412500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>438400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>472000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>397200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>369900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E45" s="3">
         <v>29500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>37300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>48200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>41600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>33400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>41700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>53200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1538400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1512100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1236600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1060900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1093100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1092100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1097100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1103500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>995300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1046900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1112600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1043700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>863500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>888600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>894900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>899300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>756400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>790800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,120 +2809,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>494400</v>
+      </c>
+      <c r="E48" s="3">
         <v>483400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>478600</v>
       </c>
       <c r="F48" s="3">
         <v>478600</v>
       </c>
       <c r="G48" s="3">
+        <v>478600</v>
+      </c>
+      <c r="H48" s="3">
         <v>467300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>460400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>439200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>422300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>354700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>346300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>340700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>313600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>328600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>325100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>316000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>309900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>297900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>284500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>331800</v>
+      </c>
+      <c r="E49" s="3">
         <v>311500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>300000</v>
       </c>
       <c r="F49" s="3">
         <v>300000</v>
       </c>
       <c r="G49" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H49" s="3">
         <v>285200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>286600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>273800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>271300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>273000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>261700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>263000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>254500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>255000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>255700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>253500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>250200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>227600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>224200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,64 +3045,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E52" s="3">
         <v>43600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>43400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>43500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>43900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>41500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>40500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2404900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2350600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2058600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1883000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1889500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1880600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1850700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1821400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1647500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1677200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1736600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1631500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1464700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1486900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1482000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1477700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1292100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1310600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,69 +3270,73 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>211500</v>
+      </c>
+      <c r="E57" s="3">
         <v>231100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>199300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>162000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>142500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>180800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>189600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>170700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>136900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>175900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>197400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>176500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>140100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>171800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>160300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>156000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>124700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>2800</v>
@@ -3215,270 +3348,285 @@
         <v>2800</v>
       </c>
       <c r="H58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>25100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>31300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>34200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>30500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>27200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>28800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>25100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>23800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>22400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>252100</v>
+      </c>
+      <c r="E59" s="3">
         <v>259700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>233100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>164400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>208700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>204500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>164800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>131000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>145800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>151100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>138800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>106200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>136000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>138400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>126200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>98000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>124700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>463700</v>
+      </c>
+      <c r="E60" s="3">
         <v>493600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>435200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>329300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>354000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>385400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>379600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>320600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>310200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>358300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>370400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>313100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>303200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>339000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>311600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>277800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>271800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>310200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>311600</v>
+      </c>
+      <c r="E61" s="3">
         <v>311300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>161100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>160600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>160900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>162900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>187500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>266400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>202100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>186500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>276300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>261300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>144700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>145900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>204800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>252900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>109100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E62" s="3">
         <v>131900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>123000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>120900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>116800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>103200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>96000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>42700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>52000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>49300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>49600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>50800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>944600</v>
+      </c>
+      <c r="E66" s="3">
         <v>953000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>734200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>622300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>645800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>665200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>683300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>698500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>574100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>601100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>704100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>629900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>505200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>551100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>580300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>593100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>442900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>473700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1182700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1127400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1057800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>999000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>995000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>969600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>917700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>875500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>839900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>841400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>800200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>768200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>736200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>715500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>684800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>670100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>649100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>637500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1460300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1397600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1324400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1260700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1243700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1215500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1167400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1122900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1073400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1076100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1032500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1001600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>959500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>935800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>901700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>884500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>849200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>837000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E81" s="3">
         <v>75000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>103700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>39100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>50600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>87800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>34700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>29800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>40300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>30500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>33000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>53700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E83" s="3">
         <v>18600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>32100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>25600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>151400</v>
+      </c>
+      <c r="E89" s="3">
         <v>37900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>147200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-46200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>151200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>127100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>70900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-55800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>56600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>96200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>48100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-84200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>39200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>82100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-70700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>36100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-46700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-42500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-71800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-66200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-48200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-36100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-58200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-47700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-64400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-99900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-70600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-27000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-170800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5091,29 +5324,29 @@
         <v>-7600</v>
       </c>
       <c r="E96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-15400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-7700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-12300</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-12300</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-11000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5121,25 +5354,28 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-10400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-9200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-9200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,172 +5548,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E100" s="3">
         <v>142200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-47000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-39700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-12000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-25000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-30300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>61100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-91000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>111600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-63300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>74500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>141700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E102" s="3">
         <v>145600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-135800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>103400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>43700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-50800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>UFPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,281 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1825000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1393700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1486200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2274100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1032100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>998000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1163000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2254900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1015100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>988200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1212700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1294400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>993900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>966100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1056600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1918500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>846100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>859600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>826700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1538500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1206700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1245200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1901900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>864800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>840800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>975800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1914000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>860900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>850500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1054000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1128800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>863000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>836900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>911900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1649500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>725400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>737300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>286600</v>
+      </c>
+      <c r="E10" s="3">
         <v>187000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>241000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>372200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>167300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>157200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>187200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>341000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>154200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>137700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>158700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>165600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>130900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>129200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>144700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>269000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>120700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>122300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1083,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,8 +1145,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1687500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1305500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1379600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2123100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>973400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>946300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1092600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2132300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>966700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>942700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1155700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1233800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>949600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>924600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1004300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1830800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>812300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>824300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>783100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E18" s="3">
         <v>88200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>106600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>151000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>58700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>51700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>70400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>122600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>48400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>45500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>57000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>60600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>44300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>41500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>52300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>87700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>35300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,58 +1378,59 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
@@ -1404,81 +1438,87 @@
       <c r="U20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>161900</v>
+      </c>
+      <c r="E21" s="3">
         <v>110700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>126800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>185500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>73100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>71000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>88100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>157100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>66400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>60400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>73100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>75700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>58900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>55500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>66300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>113800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>46400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>48200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>54100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1900</v>
       </c>
       <c r="H22" s="3">
         <v>1900</v>
@@ -1487,161 +1527,170 @@
         <v>1900</v>
       </c>
       <c r="J22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K22" s="3">
         <v>4900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E23" s="3">
         <v>88100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>105700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>147200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>53900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>51600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>69000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>120100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>47600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>40900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>55300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>58600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>43200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>40300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>50900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>84800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>32400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>34100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E24" s="3">
         <v>23300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>26800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>37000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E26" s="3">
         <v>64800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>78900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>110300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>40600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>38700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>52600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>91100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>36000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>23600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>42100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>45100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>33600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>43500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>34700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>56200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>21600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>22200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E27" s="3">
         <v>61200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>75000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>103700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>39100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>50600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>87800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>34700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>40300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>43000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>32100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>40800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>33000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>53700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>20400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1905,11 +1966,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>8000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1917,11 +1978,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,58 +2120,61 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
@@ -2112,67 +2182,73 @@
       <c r="U32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E33" s="3">
         <v>61200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>75000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>103700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>39100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>36800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>50600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>87800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>34700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>29800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>40300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>30500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>33000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>53700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E35" s="3">
         <v>61200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>75000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>103700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>39100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>36800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>50600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>87800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>34700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>29800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>40300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>43000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>30500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>33000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>53700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,362 +2485,381 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E41" s="3">
         <v>436500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>346200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>168300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>64500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>25300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>28300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>31000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>34100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E42" s="3">
         <v>24300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>20500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>17800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>18500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>17000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>16800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>15800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>811500</v>
+      </c>
+      <c r="E43" s="3">
         <v>480500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>587200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>527300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>469200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>382000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>483000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>489600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>456600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>364500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>469200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>497000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>432800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>335000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>422500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>398500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>368800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>293700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>351200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>823400</v>
+      </c>
+      <c r="E44" s="3">
         <v>567300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>528700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>459400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>510700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>486900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>479400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>528700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>580200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>556200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>510100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>531900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>521700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>460300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>412500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>438400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>472000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>397200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>369900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E45" s="3">
         <v>29700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>37300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>48200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>41600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>33400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>41700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>53200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1737100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1538400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1512100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1236600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1060900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1093100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1092100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1097100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1103500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>995300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1046900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1112600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1043700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>863500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>888600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>894900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>899300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>756400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>790800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2812,126 +2917,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>586800</v>
+      </c>
+      <c r="E48" s="3">
         <v>494400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>483400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>478600</v>
       </c>
       <c r="G48" s="3">
         <v>478600</v>
       </c>
       <c r="H48" s="3">
+        <v>478600</v>
+      </c>
+      <c r="I48" s="3">
         <v>467300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>460400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>439200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>422300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>354700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>346300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>340700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>313600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>328600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>325100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>316000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>309900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>297900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>284500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>415400</v>
+      </c>
+      <c r="E49" s="3">
         <v>331800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>311500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>300000</v>
       </c>
       <c r="G49" s="3">
         <v>300000</v>
       </c>
       <c r="H49" s="3">
+        <v>300000</v>
+      </c>
+      <c r="I49" s="3">
         <v>285200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>286600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>273800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>271300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>273000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>261700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>263000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>254500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>255000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>255700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>253500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>250200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>227600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>224200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,67 +3165,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E52" s="3">
         <v>40300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>43600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>43400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>43500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>43900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>41500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>40500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>19600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2786100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2404900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2350600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2058600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1883000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1889500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1880600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1850700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1821400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1647500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1677200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1736600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1631500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1464700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1486900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1482000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1477700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1292100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1310600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,75 +3401,79 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>299400</v>
+      </c>
+      <c r="E57" s="3">
         <v>211500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>231100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>199300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>162000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>142500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>180800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>189600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>170700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>136900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>175900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>197400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>176500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>140100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>171800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>160300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>156000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>124700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2800</v>
       </c>
       <c r="F58" s="3">
         <v>2800</v>
@@ -3351,282 +3485,297 @@
         <v>2800</v>
       </c>
       <c r="I58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>25100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>31300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>34200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>30500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>27200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>28800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>25100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>22400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>264400</v>
+      </c>
+      <c r="E59" s="3">
         <v>252100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>259700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>233100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>164400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>208700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>204500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>164800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>131000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>145800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>151100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>138800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>106200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>136000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>138400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>126200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>98000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>124700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>611000</v>
+      </c>
+      <c r="E60" s="3">
         <v>463700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>493600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>435200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>329300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>354000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>385400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>379600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>320600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>310200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>358300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>370400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>313100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>303200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>339000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>311600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>277800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>271800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>310200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>426300</v>
+      </c>
+      <c r="E61" s="3">
         <v>311600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>311300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>161100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>160600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>160900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>162900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>187500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>266400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>202100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>186500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>276300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>261300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>144700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>145900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>204800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>252900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>109100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>162200</v>
+      </c>
+      <c r="E62" s="3">
         <v>146400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>131900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>123000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>120900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>116800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>103200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>100300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>96000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>42700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>52000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>49300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>49600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>50800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1219900</v>
+      </c>
+      <c r="E66" s="3">
         <v>944600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>953000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>734200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>622300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>645800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>665200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>683300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>698500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>574100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>601100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>704100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>629900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>505200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>551100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>580300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>593100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>442900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>473700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1276700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1182700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1127400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1057800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>999000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>995000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>969600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>917700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>875500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>839900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>841400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>800200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>768200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>736200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>715500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>684800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>670100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>649100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>637500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1566200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1460300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1397600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1324400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1260700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1243700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1215500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1167400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1122900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1073400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1076100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1032500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1001600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>959500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>935800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>901700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>884500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>849200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>837000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E81" s="3">
         <v>61200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>75000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>103700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>39100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>36800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>50600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>87800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>34700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>29800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>40300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>43000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>30500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>33000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>53700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,67 +4818,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E83" s="3">
         <v>19600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>18600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>32100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>25600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-196700</v>
+      </c>
+      <c r="E89" s="3">
         <v>151400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>37900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>147200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-46200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>151200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>127100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>70900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-55800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>56600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>96200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>48100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-84200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>39200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>82100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>15200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-70700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>36100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-46700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-42500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-71800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-296500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-53800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-66200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-48200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-36100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-58200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-47700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-64400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-99900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-70600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-27000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-170800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,41 +5548,42 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7600</v>
+        <v>-9300</v>
       </c>
       <c r="E96" s="3">
         <v>-7600</v>
       </c>
       <c r="F96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-15400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-7700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-12300</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-12300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-11000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5357,25 +5591,28 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-9200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-9200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,181 +5794,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>142200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-47000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-39700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-12000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-25000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-30300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>61100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-91000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>111600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-63300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>74500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>141700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-391600</v>
+      </c>
+      <c r="E102" s="3">
         <v>89700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>145600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>32600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-135800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>103400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>43700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>28900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-50800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>UFPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,294 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E7" s="2">
         <v>44282</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1825000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1393700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1486200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2274100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1032100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>998000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1163000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2254900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1015100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>988200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1212700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1294400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>993900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>966100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1056600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1918500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>846100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>859600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>826700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2279200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1538500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1206700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1245200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1901900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>864800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>840800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>975800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1914000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>860900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>850500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1054000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1128800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>863000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>836900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>911900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1649500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>725400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>737300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>421300</v>
+      </c>
+      <c r="E10" s="3">
         <v>286600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>187000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>241000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>372200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>167300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>157200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>187200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>341000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>154200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>137700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>158700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>165600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>130900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>129200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>144700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>269000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>120700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>122300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1103,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1148,8 +1168,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2463600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1687500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1305500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1379600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2123100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>973400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>946300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1092600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2132300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>966700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>942700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1155700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1233800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>949600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>924600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1004300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1830800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>812300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>824300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>783100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>236900</v>
+      </c>
+      <c r="E18" s="3">
         <v>137500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>88200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>106600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>151000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>58700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>51700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>70400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>122600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>48400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>45500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>57000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>60600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>44300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>41500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>52300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>87700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>33800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>35300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,61 +1412,62 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
       </c>
       <c r="P20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
@@ -1441,87 +1475,93 @@
       <c r="V20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>260600</v>
+      </c>
+      <c r="E21" s="3">
         <v>161900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>110700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>126800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>185500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>73100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>71000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>88100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>157100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>66400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>60400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>73100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>75700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>58900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>55500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>66300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>113800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>46400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>48200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>54100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E22" s="3">
         <v>3200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1900</v>
       </c>
       <c r="I22" s="3">
         <v>1900</v>
@@ -1530,167 +1570,176 @@
         <v>1900</v>
       </c>
       <c r="K22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L22" s="3">
         <v>4900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>233900</v>
+      </c>
+      <c r="E23" s="3">
         <v>136000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>88100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>105700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>147200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>53900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>51600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>69000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>120100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>47600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>40900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>55300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>58600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>43200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>40300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>50900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>84800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>32400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>34100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E24" s="3">
         <v>31800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>26800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>37000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E26" s="3">
         <v>104300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>64800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>78900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>110300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>40600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>38700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>52600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>91100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>36000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>23600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>42100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>45100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>33600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>43500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>34700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>56200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>21600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>22200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100100</v>
+        <v>167700</v>
       </c>
       <c r="E27" s="3">
+        <v>100200</v>
+      </c>
+      <c r="F27" s="3">
         <v>61200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>75000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>103700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>39100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>36800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>50600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>87800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>34700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>40300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>43000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>40800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>33000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>53700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>20700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>20400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1969,11 +2030,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>8000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1981,11 +2042,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,61 +2190,64 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
       </c>
       <c r="P32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
@@ -2185,70 +2255,76 @@
       <c r="V32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100100</v>
+        <v>167700</v>
       </c>
       <c r="E33" s="3">
+        <v>100200</v>
+      </c>
+      <c r="F33" s="3">
         <v>61200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>75000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>103700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>39100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>36800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>50600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>87800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>34700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>29800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>40300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>43000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>30500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>33000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>53700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>20400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100100</v>
+        <v>167700</v>
       </c>
       <c r="E35" s="3">
+        <v>100200</v>
+      </c>
+      <c r="F35" s="3">
         <v>61200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>75000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>103700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>39100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>36800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>50600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>87800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>34700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>29800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>40300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>43000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>30500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>33000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>53700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>20400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E38" s="2">
         <v>44282</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,380 +2572,399 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E41" s="3">
         <v>44400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>436500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>346200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>168300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>64500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>28300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>31000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>34100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E42" s="3">
         <v>31400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>24300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>20500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>19200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>17800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>18500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>17000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>15800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>5900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>984800</v>
+      </c>
+      <c r="E43" s="3">
         <v>811500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>480500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>587200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>527300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>469200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>382000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>483000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>489600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>456600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>364500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>469200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>497000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>432800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>335000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>422500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>398500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>368800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>293700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>351200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1026500</v>
+      </c>
+      <c r="E44" s="3">
         <v>823400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>567300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>528700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>459400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>510700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>486900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>479400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>528700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>580200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>556200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>510100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>531900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>521700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>460300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>412500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>438400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>472000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>397200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>369900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E45" s="3">
         <v>26300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>37300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>48200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>41600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>41700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>53200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>28600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2122500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1737100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1538400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1512100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1236600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1060900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1093100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1092100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1097100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1103500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>995300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1046900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1112600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1043700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>863500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>888600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>894900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>899300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>756400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>790800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2920,132 +3025,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>630800</v>
+      </c>
+      <c r="E48" s="3">
         <v>586800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>494400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>483400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>478600</v>
       </c>
       <c r="H48" s="3">
         <v>478600</v>
       </c>
       <c r="I48" s="3">
+        <v>478600</v>
+      </c>
+      <c r="J48" s="3">
         <v>467300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>460400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>439200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>422300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>354700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>346300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>340700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>313600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>328600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>325100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>316000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>309900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>297900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>284500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>424100</v>
+      </c>
+      <c r="E49" s="3">
         <v>415400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>331800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>311500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>300000</v>
       </c>
       <c r="H49" s="3">
         <v>300000</v>
       </c>
       <c r="I49" s="3">
+        <v>300000</v>
+      </c>
+      <c r="J49" s="3">
         <v>285200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>286600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>273800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>271300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>273000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>261700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>263000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>254500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>255000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>255700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>253500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>250200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>227600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>224200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,70 +3285,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E52" s="3">
         <v>46900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>40300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>43600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>43400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>43500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>43900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>41500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>40500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>24600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>19600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3228300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2786100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2404900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2350600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2058600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1883000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1889500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1880600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1850700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1821400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1647500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1677200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1736600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1631500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1464700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1486900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1482000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1477700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1292100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1310600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,81 +3532,85 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>359500</v>
+      </c>
+      <c r="E57" s="3">
         <v>299400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>211500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>231100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>199300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>162000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>142500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>180800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>189600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>170700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>136900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>175900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>197400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>176500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>140100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>171800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>160300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>156000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>124700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E58" s="3">
         <v>47200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2800</v>
       </c>
       <c r="G58" s="3">
         <v>2800</v>
@@ -3488,294 +3622,309 @@
         <v>2800</v>
       </c>
       <c r="J58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>18900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>27500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>31300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>34200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>30500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>27200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>28800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>25100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>22400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>337500</v>
+      </c>
+      <c r="E59" s="3">
         <v>264400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>252100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>259700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>233100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>164400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>208700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>204500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>164800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>131000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>145800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>151100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>138800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>106200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>136000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>138400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>126200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>98000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>124700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>731300</v>
+      </c>
+      <c r="E60" s="3">
         <v>611000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>463700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>493600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>435200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>329300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>354000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>385400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>379600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>320600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>310200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>358300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>370400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>313100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>303200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>339000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>311600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>277800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>271800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>310200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>571900</v>
+      </c>
+      <c r="E61" s="3">
         <v>426300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>311600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>311300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>161100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>160600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>160900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>162900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>187500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>266400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>202100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>186500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>276300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>261300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>144700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>145900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>204800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>252900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>109100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>165500</v>
+      </c>
+      <c r="E62" s="3">
         <v>162200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>146400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>131900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>123000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>120900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>116800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>103200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>96000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>46600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>42300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>40100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>52000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>49300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>49600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>50800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1491800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1219900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>944600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>953000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>734200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>622300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>645800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>665200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>683300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>698500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>574100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>601100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>704100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>629900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>505200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>551100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>580300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>593100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>442900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>473700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1440800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1276700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1182700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1127400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1057800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>999000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>995000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>969600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>917700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>875500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>839900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>841400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>800200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>768200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>736200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>715500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>684800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>670100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>649100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>637500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1736500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1566200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1460300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1397600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1324400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1260700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1243700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1215500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1167400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1122900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1073400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1076100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1032500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1001600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>959500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>935800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>901700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>884500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>849200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>837000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E80" s="2">
         <v>44282</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100100</v>
+        <v>167700</v>
       </c>
       <c r="E81" s="3">
+        <v>100200</v>
+      </c>
+      <c r="F81" s="3">
         <v>61200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>75000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>103700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>39100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>36800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>50600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>87800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>34700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>29800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>40300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>43000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>30500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>33000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>53700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>20400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,70 +5017,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E83" s="3">
         <v>22700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>18600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>25600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>80900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-196700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>151400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>37900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>147200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-46200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>151200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>127100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>70900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-55800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>56600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>96200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>48100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-84200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>39200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>82100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>15200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-70700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>36100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-34700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-46700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-30000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-71800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-217500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-296500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-53800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-66200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-48200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-36100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-58200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-47700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-64400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-99900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-70600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-27000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-170800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5558,35 +5792,35 @@
         <v>-9300</v>
       </c>
       <c r="E96" s="3">
-        <v>-7600</v>
+        <v>-9300</v>
       </c>
       <c r="F96" s="3">
         <v>-7600</v>
       </c>
       <c r="G96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="H96" s="3">
         <v>-15400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-7700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-12300</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-12300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-11000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5594,25 +5828,28 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-10400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-9200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-9200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,190 +6040,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E100" s="3">
         <v>101900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>142200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-47000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-39700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-25000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-30300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>61100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-91000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>111600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-63300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>74500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>141700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-391600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>89700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>145600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>32600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-135800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>103400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>43700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>28900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-50800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>UFPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,307 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E7" s="2">
         <v>44373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44282</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2700500</v>
+        <v>2093800</v>
       </c>
       <c r="E8" s="3">
+        <v>4525500</v>
+      </c>
+      <c r="F8" s="3">
         <v>1825000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1393700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1486200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2274100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1032100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>998000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1163000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2254900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1015100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>988200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1212700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1294400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>993900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>966100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1056600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1918500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>846100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>859600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>826700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2279200</v>
+        <v>1766200</v>
       </c>
       <c r="E9" s="3">
+        <v>3817700</v>
+      </c>
+      <c r="F9" s="3">
         <v>1538500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1206700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1245200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1901900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>864800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>840800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>975800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1914000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>860900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>850500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1054000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1128800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>863000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>836900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>911900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1649500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>725400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>737300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>421300</v>
+        <v>327600</v>
       </c>
       <c r="E10" s="3">
+        <v>707800</v>
+      </c>
+      <c r="F10" s="3">
         <v>286600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>187000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>241000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>372200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>167300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>157200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>187200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>341000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>154200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>137700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>158700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>165600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>130900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>129200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>144700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>269000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>120700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>122300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1171,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2463600</v>
+        <v>1925700</v>
       </c>
       <c r="E17" s="3">
+        <v>4151100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1687500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1305500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1379600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2123100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>973400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>946300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1092600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2132300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>966700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>942700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1155700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1233800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>949600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>924600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1004300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1830800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>812300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>824300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>783100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>236900</v>
+        <v>168100</v>
       </c>
       <c r="E18" s="3">
+        <v>374400</v>
+      </c>
+      <c r="F18" s="3">
         <v>137500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>88200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>106600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>151000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>58700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>51700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>70400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>122600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>48400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>45500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>57000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>60600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>44300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>41500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>52300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>87700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>33800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>35300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,64 +1446,65 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>900</v>
+        <v>-1300</v>
       </c>
       <c r="E20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
       </c>
       <c r="Q20" s="3">
+        <v>200</v>
+      </c>
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
@@ -1478,93 +1512,99 @@
       <c r="W20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>260600</v>
+        <v>192400</v>
       </c>
       <c r="E21" s="3">
+        <v>422500</v>
+      </c>
+      <c r="F21" s="3">
         <v>161900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>110700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>126800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>185500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>73100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>71000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>88100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>157100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>66400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>60400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>73100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>75700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>58900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>55500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>66300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>113800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>46400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>48200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>54100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="E22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F22" s="3">
         <v>3200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1900</v>
       </c>
       <c r="J22" s="3">
         <v>1900</v>
@@ -1573,173 +1613,182 @@
         <v>1900</v>
       </c>
       <c r="L22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M22" s="3">
         <v>4900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>233900</v>
+        <v>163400</v>
       </c>
       <c r="E23" s="3">
+        <v>369900</v>
+      </c>
+      <c r="F23" s="3">
         <v>136000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>88100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>105700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>147200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>53900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>51600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>69000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>120100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>47600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>40900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>55300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>58600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>43200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>40300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>50900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>84800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>32400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>34100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>58500</v>
+        <v>37600</v>
       </c>
       <c r="E24" s="3">
+        <v>90300</v>
+      </c>
+      <c r="F24" s="3">
         <v>31800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>26800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>37000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>13300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>16300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>175400</v>
+        <v>125700</v>
       </c>
       <c r="E26" s="3">
+        <v>279600</v>
+      </c>
+      <c r="F26" s="3">
         <v>104300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>64800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>78900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>110300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>40600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>38700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>52600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>91100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>36000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>42100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>45100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>33600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>43500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>34700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>56200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>21600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>22200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>167700</v>
+        <v>117100</v>
       </c>
       <c r="E27" s="3">
+        <v>267800</v>
+      </c>
+      <c r="F27" s="3">
         <v>100200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>61200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>75000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>103700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>39100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>36800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>50600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>87800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>34700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>40300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>43000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>40800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>33000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>53700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>20700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>20400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2033,11 +2094,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>8000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2045,11 +2106,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,64 +2260,67 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-900</v>
+        <v>1300</v>
       </c>
       <c r="E32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
       </c>
       <c r="Q32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
@@ -2258,73 +2328,79 @@
       <c r="W32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>167700</v>
+        <v>117100</v>
       </c>
       <c r="E33" s="3">
+        <v>267800</v>
+      </c>
+      <c r="F33" s="3">
         <v>100200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>61200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>75000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>103700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>39100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>36800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>50600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>87800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>34700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>29800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>40300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>43000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>30500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>33000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>53700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>20700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>20400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>167700</v>
+        <v>117100</v>
       </c>
       <c r="E35" s="3">
+        <v>267800</v>
+      </c>
+      <c r="F35" s="3">
         <v>100200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>61200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>75000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>103700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>39100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>36800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>50600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>87800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>34700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>29800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>40300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>43000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>30500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>33000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>53700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>20700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>20400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E38" s="2">
         <v>44373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44282</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,398 +2659,417 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>138600</v>
+      </c>
+      <c r="E41" s="3">
         <v>44300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>436500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>346200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>168300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>64500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>28300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>22000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>31000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>34100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E42" s="3">
         <v>33800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>31400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>24300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>20500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>19200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>17800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>18500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>801900</v>
+      </c>
+      <c r="E43" s="3">
         <v>984800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>811500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>480500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>587200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>527300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>469200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>382000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>483000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>489600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>456600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>364500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>469200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>497000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>432800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>335000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>422500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>398500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>368800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>293700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>351200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1026500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>823400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>567300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>528700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>459400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>510700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>486900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>479400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>528700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>580200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>556200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>510100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>531900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>521700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>460300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>412500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>438400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>472000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>397200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>369900</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E45" s="3">
         <v>33100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>37300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>41600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>33400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>41700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>53200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1922800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2122500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1737100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1538400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1512100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1236600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1060900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1093100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1092100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1097100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1103500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>995300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1046900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1112600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1043700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>863500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>888600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>894900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>899300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>756400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>790800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3028,138 +3133,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>647400</v>
+      </c>
+      <c r="E48" s="3">
         <v>630800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>586800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>494400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>483400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>478600</v>
       </c>
       <c r="I48" s="3">
         <v>478600</v>
       </c>
       <c r="J48" s="3">
+        <v>478600</v>
+      </c>
+      <c r="K48" s="3">
         <v>467300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>460400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>439200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>422300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>354700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>346300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>340700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>313600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>328600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>325100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>316000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>309900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>297900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>284500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>393700</v>
+      </c>
+      <c r="E49" s="3">
         <v>424100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>415400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>331800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>311500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>300000</v>
       </c>
       <c r="I49" s="3">
         <v>300000</v>
       </c>
       <c r="J49" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K49" s="3">
         <v>285200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>286600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>273800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>271300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>273000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>261700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>263000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>254500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>255000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>255700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>253500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>250200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>227600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>224200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,73 +3405,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E52" s="3">
         <v>50900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>46900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>40300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>43600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>43400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>43500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>43900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>40500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>24400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>24600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>22300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>19600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3014200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3228300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2786100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2404900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2350600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2058600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1883000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1889500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1880600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1850700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1821400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1647500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1677200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1736600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1631500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1464700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1486900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1482000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1477700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1292100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1310600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,87 +3663,91 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>292900</v>
+      </c>
+      <c r="E57" s="3">
         <v>359500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>299400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>211500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>231100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>199300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>162000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>142500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>180800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>189600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>170700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>136900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>175900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>197400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>176500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>140100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>171800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>160300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>156000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>124700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E58" s="3">
         <v>34300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>47200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2800</v>
       </c>
       <c r="H58" s="3">
         <v>2800</v>
@@ -3625,306 +3759,321 @@
         <v>2800</v>
       </c>
       <c r="K58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>18900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>27500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>31300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>34200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>30500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>27200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>28800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>25100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>23800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>22400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>361800</v>
+      </c>
+      <c r="E59" s="3">
         <v>337500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>264400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>252100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>259700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>233100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>164400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>208700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>204500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>164800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>131000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>145800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>151100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>138800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>106200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>136000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>138400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>126200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>98000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>124700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>665700</v>
+      </c>
+      <c r="E60" s="3">
         <v>731300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>611000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>463700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>493600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>435200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>329300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>354000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>385400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>379600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>320600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>310200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>358300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>370400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>313100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>303200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>339000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>311600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>277800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>271800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>310200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>310100</v>
+      </c>
+      <c r="E61" s="3">
         <v>571900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>426300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>311600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>311300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>161100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>160600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>160900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>162900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>187500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>266400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>202100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>186500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>276300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>261300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>144700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>145900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>204800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>252900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>109100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E62" s="3">
         <v>165500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>162200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>146400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>131900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>123000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>120900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>116800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>103200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>96000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>46600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>42300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>52000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>49300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>49600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>50800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1163500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1491800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1219900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>944600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>953000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>734200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>622300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>645800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>665200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>683300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>698500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>574100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>601100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>704100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>629900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>505200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>551100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>580300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>593100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>442900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>473700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1552600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1440800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1276700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1182700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1127400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1057800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>999000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>995000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>969600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>917700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>875500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>839900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>841400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>800200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>768200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>736200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>715500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>684800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>670100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>649100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>637500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1850800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1736500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1566200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1460300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1397600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1324400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1260700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1243700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1215500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1167400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1122900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1073400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1076100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1032500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1001600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>959500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>935800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>901700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>884500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>849200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>837000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E80" s="2">
         <v>44373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44282</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>167700</v>
+        <v>117100</v>
       </c>
       <c r="E81" s="3">
+        <v>267800</v>
+      </c>
+      <c r="F81" s="3">
         <v>100200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>61200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>75000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>103700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>39100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>36800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>50600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>87800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>34700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>29800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>40300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>43000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>30500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>33000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>53700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>20700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>20400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5216,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22800</v>
+        <v>25600</v>
       </c>
       <c r="E83" s="3">
+        <v>45500</v>
+      </c>
+      <c r="F83" s="3">
         <v>22700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>18600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>25600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>80900</v>
+        <v>397500</v>
       </c>
       <c r="E89" s="3">
+        <v>-115700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-196700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>151400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>37900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>147200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-46200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>151200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>127100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>70900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-55800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>56600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>96200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>48100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-84200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>39200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>82100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>15200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-70700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>36100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-44400</v>
+        <v>-31100</v>
       </c>
       <c r="E91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-34700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-46700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-34500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-71800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-217500</v>
+        <v>-14300</v>
       </c>
       <c r="E94" s="3">
+        <v>-514000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-296500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-53800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-34700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-66200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-48200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-36100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-58200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-47700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-35600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-64400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-99900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-70600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-27000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-170800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5792,38 +6026,38 @@
         <v>-9300</v>
       </c>
       <c r="E96" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-9300</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-7600</v>
       </c>
       <c r="G96" s="3">
         <v>-7600</v>
       </c>
       <c r="H96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I96" s="3">
         <v>-15400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-7700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-12300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-12300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-11000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5831,25 +6065,28 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-10400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-9200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-9200</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,199 +6286,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>136000</v>
+        <v>-271500</v>
       </c>
       <c r="E100" s="3">
+        <v>237900</v>
+      </c>
+      <c r="F100" s="3">
         <v>101900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>142200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-47000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-39700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-25000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-30300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>61100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-91000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>111600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-63300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>74500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>141700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-10800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K101" s="3">
+        <v>300</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>400</v>
+      </c>
+      <c r="N101" s="3">
+        <v>200</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>400</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="Q101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O101" s="3">
-        <v>500</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>200</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>111300</v>
       </c>
       <c r="E102" s="3">
+        <v>-391700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-391600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>89700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>145600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>32600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-135800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>103400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>28900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-50800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>UFPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E7" s="2">
         <v>44464</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44282</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2016800</v>
+      </c>
+      <c r="E8" s="3">
         <v>2093800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4525500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1825000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1393700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1486200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2274100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1032100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>998000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1163000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2254900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1015100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>988200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1212700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1294400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>993900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>966100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1056600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1918500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>846100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>859600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>826700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1645200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1766200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3817700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1538500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1206700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1245200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1901900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>864800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>840800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>975800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1914000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>860900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>850500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1054000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1128800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>863000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>836900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>911900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1649500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>725400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>737300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>371600</v>
+      </c>
+      <c r="E10" s="3">
         <v>327600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>707800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>286600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>187000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>241000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>372200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>167300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>157200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>187200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>341000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>154200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>137700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>158700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>165600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>130900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>129200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>144700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>269000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>120700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>122300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1142,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1194,8 +1213,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1821800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1925700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4151100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1687500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1305500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1379600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2123100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>973400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>946300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1092600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2132300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>966700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>942700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1155700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1233800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>949600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>924600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1004300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1830800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>812300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>824300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>783100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E18" s="3">
         <v>168100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>374400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>137500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>88200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>106600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>151000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>58700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>51700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>70400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>122600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>48400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>45500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>57000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>60600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>44300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>41500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>52300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>87700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>33800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>35300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,67 +1479,68 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
       </c>
       <c r="R20" s="3">
+        <v>200</v>
+      </c>
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
-      </c>
-      <c r="V20" s="3">
-        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
@@ -1515,99 +1548,105 @@
       <c r="X20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>223400</v>
+      </c>
+      <c r="E21" s="3">
         <v>192400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>422500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>161900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>110700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>126800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>185500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>73100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>71000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>88100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>157100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>66400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>60400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>73100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>75700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>58900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>55500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>66300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>113800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>46400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>48200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>54100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E22" s="3">
         <v>3400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1900</v>
       </c>
       <c r="K22" s="3">
         <v>1900</v>
@@ -1616,179 +1655,188 @@
         <v>1900</v>
       </c>
       <c r="M22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N22" s="3">
         <v>4900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>193100</v>
+      </c>
+      <c r="E23" s="3">
         <v>163400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>369900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>136000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>88100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>105700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>147200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>53900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>51600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>69000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>120100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>47600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>40900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>55300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>58600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>43200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>40300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>50900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>84800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>32400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>34100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E24" s="3">
         <v>37600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>90300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>31800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>26800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>37000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>16300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>28600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E26" s="3">
         <v>125700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>279600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>104300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>64800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>78900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>110300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>40600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>38700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>52600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>91100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>36000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>42100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>45100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>33600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>43500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>34700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>56200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>21600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>22200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E27" s="3">
         <v>117100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>267800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>61200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>75000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>103700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>39100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>50600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>87800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>34700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>40300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>43000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>32100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>40800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>33000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>53700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>20700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>20400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2097,11 +2157,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>8000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2109,11 +2169,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2127,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,67 +2329,70 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
       <c r="R32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
@@ -2331,76 +2400,82 @@
       <c r="X32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E33" s="3">
         <v>117100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>267800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>61200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>75000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>103700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>36800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>50600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>87800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>34700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>29800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>40300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>32100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>30500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>33000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>53700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>20700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>20400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E35" s="3">
         <v>117100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>267800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>61200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>75000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>103700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>36800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>50600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>87800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>34700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>29800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>40300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>32100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>30500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>33000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>53700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>20700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>20400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E38" s="2">
         <v>44464</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44282</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,416 +2745,435 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>286700</v>
+      </c>
+      <c r="E41" s="3">
         <v>138600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>436500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>346200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>32100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>168300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>64500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>26300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>28300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>22000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>24600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>31000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>34100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E42" s="3">
         <v>33700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>33800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>31400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>24300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>20500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>19200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>17800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>18500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>11300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>748200</v>
+      </c>
+      <c r="E43" s="3">
         <v>801900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>984800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>811500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>480500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>587200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>527300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>469200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>382000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>483000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>489600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>456600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>364500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>469200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>497000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>432800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>335000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>422500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>398500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>368800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>293700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>351200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>963300</v>
+      </c>
+      <c r="E44" s="3">
         <v>900700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1026500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>823400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>567300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>528700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>459400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>510700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>486900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>479400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>528700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>580200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>556200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>510100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>531900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>521700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>460300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>412500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>438400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>472000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>397200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>369900</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E45" s="3">
         <v>47900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>33100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>37300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>41600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>33400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>32500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>41700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>53200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2073500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1922800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2122500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1737100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1538400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1512100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1236600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1060900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1093100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1092100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1097100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1103500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>995300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1046900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1112600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1043700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>863500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>888600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>894900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>899300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>756400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>790800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3136,144 +3240,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>685700</v>
+      </c>
+      <c r="E48" s="3">
         <v>647400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>630800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>586800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>494400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>483400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>478600</v>
       </c>
       <c r="J48" s="3">
         <v>478600</v>
       </c>
       <c r="K48" s="3">
+        <v>478600</v>
+      </c>
+      <c r="L48" s="3">
         <v>467300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>460400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>439200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>422300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>354700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>346300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>340700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>313600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>328600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>325100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>316000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>309900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>297900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>284500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>431400</v>
+      </c>
+      <c r="E49" s="3">
         <v>393700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>424100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>415400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>331800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>311500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>300000</v>
       </c>
       <c r="J49" s="3">
         <v>300000</v>
       </c>
       <c r="K49" s="3">
+        <v>300000</v>
+      </c>
+      <c r="L49" s="3">
         <v>285200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>286600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>273800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>271300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>273000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>261700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>263000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>254500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>255000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>255700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>253500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>250200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>227600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>224200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E52" s="3">
         <v>50400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>50900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>46900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>40300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>43600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>43400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>43500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>43900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>41500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>40500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>24400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>24600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>22300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>19600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3245300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3014200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3228300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2786100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2404900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2350600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2058600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1883000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1889500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1880600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1850700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1821400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1647500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1677200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1736600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1631500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1464700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1486900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1482000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1477700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1292100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1310600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,93 +3793,97 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>319100</v>
+      </c>
+      <c r="E57" s="3">
         <v>292900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>359500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>299400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>211500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>231100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>199300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>162000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>142500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>180800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>189600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>170700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>136900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>175900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>197400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>176500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>140100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>171800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>160300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>156000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>124700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E58" s="3">
         <v>10900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>34300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>47200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2800</v>
       </c>
       <c r="I58" s="3">
         <v>2800</v>
@@ -3762,318 +3895,333 @@
         <v>2800</v>
       </c>
       <c r="L58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>18900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>27500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>31300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>34200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>30500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>27200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>28800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>25100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>23800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>22400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>397200</v>
+      </c>
+      <c r="E59" s="3">
         <v>361800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>337500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>264400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>252100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>259700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>233100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>164400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>208700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>204500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>164800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>131000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>145800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>151100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>138800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>106200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>136000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>138400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>126200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>98000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>124700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>776000</v>
+      </c>
+      <c r="E60" s="3">
         <v>665700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>731300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>611000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>463700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>493600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>435200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>329300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>354000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>385400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>379600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>320600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>310200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>358300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>370400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>313100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>303200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>339000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>311600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>277800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>271800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>310200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>277600</v>
+      </c>
+      <c r="E61" s="3">
         <v>310100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>571900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>426300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>311600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>311300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>161100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>160600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>160900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>162900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>187500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>266400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>202100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>186500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>276300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>261300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>144700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>145900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>204800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>252900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>109100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>175100</v>
+      </c>
+      <c r="E62" s="3">
         <v>161000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>165500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>162200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>146400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>131900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>123000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>120900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>116800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>103200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>96000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>46600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>40600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>42700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>52000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>49300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>49600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>50800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1266700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1163500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1491800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1219900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>944600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>953000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>734200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>622300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>645800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>665200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>683300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>698500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>574100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>601100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>704100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>629900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>505200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>551100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>580300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>593100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>442900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>473700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1678100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1552600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1440800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1276700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1182700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1127400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1057800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>999000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>995000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>969600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>917700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>875500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>839900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>841400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>800200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>768200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>736200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>715500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>684800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>670100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>649100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>637500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1978600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1850800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1736500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1566200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1460300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1397600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1324400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1260700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1243700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1215500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1167400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1122900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1073400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1076100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1032500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1001600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>959500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>935800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>901700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>884500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>849200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>837000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E80" s="2">
         <v>44464</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44282</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E81" s="3">
         <v>117100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>267800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>61200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>75000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>103700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>36800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>50600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>87800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>34700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>29800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>40300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>32100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>30500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>33000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>53700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>20700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>20400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E83" s="3">
         <v>25600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>45500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>18600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>25600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>230700</v>
+      </c>
+      <c r="E89" s="3">
         <v>397500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-115700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-196700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>151400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>37900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>147200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-46200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>151200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>127100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>70900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-55800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>56600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>96200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>48100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-84200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>39200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>82100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>15200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-70700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>36100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-31100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-79000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-46700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-34500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-71800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-514000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-296500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-53800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-34700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-66200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-48200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-58200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-47700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-64400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-99900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-70600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-27000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-170800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,50 +6249,51 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-9300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-18600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-9300</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-7600</v>
       </c>
       <c r="H96" s="3">
         <v>-7600</v>
       </c>
       <c r="I96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J96" s="3">
         <v>-15400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-7700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-12300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-12300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-11000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6068,25 +6301,28 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-10400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-9200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-9200</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,208 +6531,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-271500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>237900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>101900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>142200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-47000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-39700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-25000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-30300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>61100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-91000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>111600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-16500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-63300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>74500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>141700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-10800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E102" s="3">
         <v>111300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-391700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-391600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>89700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>145600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>32600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-135800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>103400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>43700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>28900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-50800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>UFPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,332 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E7" s="2">
         <v>44555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44464</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44282</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2489300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2016800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2093800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4525500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1825000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1393700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1486200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2274100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1032100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>998000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1163000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2254900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1015100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>988200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1212700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1294400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>993900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>966100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1056600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1918500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>846100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>859600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>826700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2011000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1645200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1766200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3817700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1538500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1206700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1245200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1901900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>864800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>840800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>975800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1914000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>860900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>850500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1054000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1128800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>863000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>836900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>911900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1649500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>725400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>737300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>478400</v>
+      </c>
+      <c r="E10" s="3">
         <v>371600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>327600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>707800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>286600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>187000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>241000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>372200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>167300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>157200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>187200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>341000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>154200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>137700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>158700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>165600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>130900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>129200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>144700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>269000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>120700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>122300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1016,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1088,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,8 +1162,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1216,8 +1236,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1310,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2230300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1821800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1925700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4151100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1687500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1305500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1379600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2123100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>973400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>946300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1092600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2132300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>966700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>942700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1155700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1233800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>949600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>924600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1004300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1830800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>812300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>824300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>783100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E18" s="3">
         <v>195000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>168100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>374400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>137500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>88200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>106600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>151000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>58700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>51700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>70400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>122600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>48400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>45500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>57000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>60600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>44300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>41500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>52300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>87700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>33800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>35300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,70 +1513,71 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
       </c>
       <c r="S20" s="3">
+        <v>200</v>
+      </c>
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
-      </c>
-      <c r="W20" s="3">
-        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>100</v>
@@ -1551,79 +1585,85 @@
       <c r="Y20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>283900</v>
+      </c>
+      <c r="E21" s="3">
         <v>223400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>192400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>422500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>161900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>110700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>126800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>185500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>73100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>71000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>88100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>157100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>66400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>60400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>73100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>75700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>58900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>55500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>66300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>113800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>46400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>48200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>54100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1631,25 +1671,25 @@
         <v>3300</v>
       </c>
       <c r="E22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F22" s="3">
         <v>3400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1900</v>
       </c>
       <c r="L22" s="3">
         <v>1900</v>
@@ -1658,185 +1698,194 @@
         <v>1900</v>
       </c>
       <c r="N22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O22" s="3">
         <v>4900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>254100</v>
+      </c>
+      <c r="E23" s="3">
         <v>193100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>163400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>369900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>136000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>88100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>105700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>147200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>53900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>51600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>69000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>120100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>47600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>40900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>55300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>58600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>43200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>40300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>50900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>84800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>32400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>34100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E24" s="3">
         <v>46100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>37600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>90300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>31800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>26800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>37000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>28900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>16300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>28600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>193100</v>
+      </c>
+      <c r="E26" s="3">
         <v>147000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>125700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>279600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>104300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>64800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>78900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>110300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>40600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>38700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>52600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>91100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>36000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>42100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>45100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>33600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>43500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>34700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>56200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>21600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>22200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>182900</v>
+      </c>
+      <c r="E27" s="3">
         <v>133400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>117100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>267800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>61200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>75000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>103700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>36800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>50600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>87800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>34700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>21800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>40300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>43000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>32100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>40800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>33000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>53700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>20700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>20400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,31 +2177,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2160,11 +2221,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>8000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2172,11 +2233,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2190,8 +2251,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,70 +2399,73 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
       </c>
       <c r="S32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>-100</v>
@@ -2403,79 +2473,85 @@
       <c r="Y32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>182900</v>
+      </c>
+      <c r="E33" s="3">
         <v>133400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>117100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>267800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>61200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>75000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>103700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>36800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>50600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>87800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>34700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>29800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>40300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>43000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>32100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>30500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>33000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>53700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>20700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>20400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>182900</v>
+      </c>
+      <c r="E35" s="3">
         <v>133400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>117100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>267800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>61200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>75000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>103700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>36800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>50600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>87800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>34700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>29800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>40300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>43000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>32100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>30500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>33000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>53700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>20700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>20400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E38" s="2">
         <v>44555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44464</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44282</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,434 +2832,453 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E41" s="3">
         <v>286700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>138600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>436500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>346200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>168300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>64500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>26300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>25300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>28300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>22000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>24600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>31000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>34100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E42" s="3">
         <v>36500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>33700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>33800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>31400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>24300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>20500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>18500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1102100</v>
+      </c>
+      <c r="E43" s="3">
         <v>748200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>801900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>984800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>811500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>480500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>587200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>527300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>469200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>382000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>483000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>489600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>456600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>364500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>469200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>497000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>432800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>335000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>422500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>398500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>368800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>293700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>351200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1230400</v>
+      </c>
+      <c r="E44" s="3">
         <v>963300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>900700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1026500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>823400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>567300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>528700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>459400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>510700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>486900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>479400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>528700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>580200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>556200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>510100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>531900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>521700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>460300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>412500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>438400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>472000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>397200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>369900</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E45" s="3">
         <v>38800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>47900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>33100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>30100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>37300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>41600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>33400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>41700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>53200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>28600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>20700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>22900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>21100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2472400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2073500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1922800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2122500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1737100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1538400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1512100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1236600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1060900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1093100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1092100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1097100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1103500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>995300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1046900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1112600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1043700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>863500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>888600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>894900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>899300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>756400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>790800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3243,150 +3348,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700800</v>
+      </c>
+      <c r="E48" s="3">
         <v>685700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>647400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>630800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>586800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>494400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>483400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>478600</v>
       </c>
       <c r="K48" s="3">
         <v>478600</v>
       </c>
       <c r="L48" s="3">
+        <v>478600</v>
+      </c>
+      <c r="M48" s="3">
         <v>467300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>460400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>439200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>422300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>354700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>346300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>340700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>313600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>328600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>325100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>316000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>309900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>297900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>284500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>445200</v>
+      </c>
+      <c r="E49" s="3">
         <v>431400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>393700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>424100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>415400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>331800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>311500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>300000</v>
       </c>
       <c r="K49" s="3">
         <v>300000</v>
       </c>
       <c r="L49" s="3">
+        <v>300000</v>
+      </c>
+      <c r="M49" s="3">
         <v>285200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>286600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>273800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>271300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>273000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>261700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>263000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>254500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>255000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>255700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>253500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>250200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>227600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>224200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3644,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E52" s="3">
         <v>54600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>50400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>50900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>46900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>40300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>43600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>43400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>43500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>43900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>41500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>40500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>24400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>24600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>22300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>20300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>19600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3792,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3674000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3245300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3014200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3228300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2786100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2404900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2350600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2058600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1883000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1889500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1880600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1850700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1821400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1647500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1677200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1736600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1631500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1464700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1486900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1482000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1477700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1292100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1310600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,99 +3924,103 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>426000</v>
+      </c>
+      <c r="E57" s="3">
         <v>319100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>292900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>359500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>299400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>211500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>231100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>199300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>162000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>142500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>180800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>189600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>170700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>136900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>175900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>197400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>176500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>140100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>171800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>160300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>156000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>124700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E58" s="3">
         <v>59700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>34300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>47200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2800</v>
       </c>
       <c r="J58" s="3">
         <v>2800</v>
@@ -3898,330 +4032,345 @@
         <v>2800</v>
       </c>
       <c r="M58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>25100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>27500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>31300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>34200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>30500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>27200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>28800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>25100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>23800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>22400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>372600</v>
+      </c>
+      <c r="E59" s="3">
         <v>397200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>361800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>337500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>264400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>252100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>259700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>233100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>164400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>208700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>204500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>164800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>131000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>145800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>151100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>138800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>106200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>136000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>138400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>126200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>98000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>124700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>903200</v>
+      </c>
+      <c r="E60" s="3">
         <v>776000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>665700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>731300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>611000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>463700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>493600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>435200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>329300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>354000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>385400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>379600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>320600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>310200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>358300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>370400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>313100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>303200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>339000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>311600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>277800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>271800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>310200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>379000</v>
+      </c>
+      <c r="E61" s="3">
         <v>277600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>310100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>571900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>426300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>311600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>311300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>161100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>160600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>160900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>162900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>187500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>266400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>202100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>186500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>276300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>261300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>144700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>145900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>204800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>252900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>109100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>173600</v>
+      </c>
+      <c r="E62" s="3">
         <v>175100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>161000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>165500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>162200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>146400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>131900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>123000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>120900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>116800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>103200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>100300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>96000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>46600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>42700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>52000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>49300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>49600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>50800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4588,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1496100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1266700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1163500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1491800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1219900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>944600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>953000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>734200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>622300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>645800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>665200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>683300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>698500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>574100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>601100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>704100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>629900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>505200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>551100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>580300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>593100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>442900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>473700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1851800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1678100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1552600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1440800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1276700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1182700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1127400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1057800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>999000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>995000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>969600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>917700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>875500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>839900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>841400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>800200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>768200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>736200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>715500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>684800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>670100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>649100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>637500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2177900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1978600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1850800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1736500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1566200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1460300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1397600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1324400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1260700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1243700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1215500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1167400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1122900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1073400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1076100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1032500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1001600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>959500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>935800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>901700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>884500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>849200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>837000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E80" s="2">
         <v>44555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44464</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44282</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>182900</v>
+      </c>
+      <c r="E81" s="3">
         <v>133400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>117100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>267800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>61200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>75000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>103700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>36800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>50600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>87800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>34700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>29800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>40300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>43000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>32100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>30500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>33000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>53700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>20700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>20400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5613,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E83" s="3">
         <v>27000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>45500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>18600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>25600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-245000</v>
+      </c>
+      <c r="E89" s="3">
         <v>230700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>397500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-115700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-196700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>151400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>37900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>147200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-46200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>151200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>127100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>70900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-55800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>56600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>96200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>48100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-84200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>39200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>82100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>15200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-70700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>36100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6159,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-41100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-79000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-46700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-42500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-30000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-34500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-16500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-71800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6379,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-82900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-514000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-296500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-53800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-66200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-48200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-58200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-47700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-64400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-99900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-70600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-27000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-170800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,53 +6483,54 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-12400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-9300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-18600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-9300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-7600</v>
       </c>
       <c r="I96" s="3">
         <v>-7600</v>
       </c>
       <c r="J96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-15400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-12300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-12300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6304,25 +6538,28 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-10400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-9200</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +6777,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>86300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-271500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>237900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>101900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>142200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-47000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-39700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-25000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-30300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>61100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-91000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>111600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-16500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-63300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>74500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>141700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-10800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-216700</v>
+      </c>
+      <c r="E102" s="3">
         <v>135000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>111300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-391700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-391600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>89700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>145600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>32600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-135800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>103400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>43700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>28900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-9000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-50800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>UFPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,345 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E7" s="2">
         <v>44646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44464</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44282</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2900900</v>
+      </c>
+      <c r="E8" s="3">
         <v>2489300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2016800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2093800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4525500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1825000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1393700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1486200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2274100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1032100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>998000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1163000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2254900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1015100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>988200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1212700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1294400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>993900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>966100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1056600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1918500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>846100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>859600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>826700</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2397400</v>
+      </c>
+      <c r="E9" s="3">
         <v>2011000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1645200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1766200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3817700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1538500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1206700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1245200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1901900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>864800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>840800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>975800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1914000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>860900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>850500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1054000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1128800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>863000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>836900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>911900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1649500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>725400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>737300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>503500</v>
+      </c>
+      <c r="E10" s="3">
         <v>478400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>371600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>327600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>707800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>286600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>187000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>241000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>372200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>167300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>157200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>187200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>341000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>154200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>137700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>158700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>165600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>130900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>129200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>144700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>269000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>120700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>122300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1030,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,8 +1105,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +1182,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1239,8 +1259,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1313,8 +1336,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1364,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2615300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2230300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1821800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1925700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4151100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1687500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1305500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1379600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2123100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>973400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>946300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1092600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2132300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>966700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>942700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1155700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1233800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>949600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>924600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1004300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1830800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>812300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>824300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>783100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>285600</v>
+      </c>
+      <c r="E18" s="3">
         <v>259000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>195000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>168100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>374400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>137500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>88200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>106600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>151000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>58700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>51700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>70400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>122600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>48400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>45500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>57000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>60600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>44300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>41500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>52300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>87700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>33800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>35300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,73 +1547,74 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>200</v>
       </c>
       <c r="T20" s="3">
+        <v>200</v>
+      </c>
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
-      </c>
-      <c r="X20" s="3">
-        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>100</v>
@@ -1588,111 +1622,117 @@
       <c r="Z20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>306700</v>
+      </c>
+      <c r="E21" s="3">
         <v>283900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>223400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>192400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>422500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>161900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>110700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>126800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>185500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>73100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>71000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>88100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>157100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>66400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>60400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>73100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>75700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>58900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>55500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>66300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>113800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>46400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>48200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>54100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E22" s="3">
         <v>3300</v>
       </c>
       <c r="F22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G22" s="3">
         <v>3400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1900</v>
       </c>
       <c r="M22" s="3">
         <v>1900</v>
@@ -1701,191 +1741,200 @@
         <v>1900</v>
       </c>
       <c r="O22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P22" s="3">
         <v>4900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E23" s="3">
         <v>254100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>193100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>163400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>369900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>136000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>88100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>105700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>147200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>53900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>51600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>69000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>120100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>47600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>40900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>55300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>58600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>43200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>40300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>50900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>84800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>32400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>34100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E24" s="3">
         <v>61000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>46100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>37600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>90300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>31800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>26800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>16300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>28600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>11900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>207900</v>
+      </c>
+      <c r="E26" s="3">
         <v>193100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>147000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>125700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>279600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>104300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>64800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>78900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>110300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>40600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>52600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>91100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>36000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>23600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>42100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>45100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>33600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>43500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>34700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>56200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>21600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>22200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>194800</v>
+      </c>
+      <c r="E27" s="3">
         <v>182900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>133400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>117100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>267800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>61200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>75000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>103700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>50600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>87800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>34700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>21800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>40300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>43000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>32100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>40800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>33000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>53700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>20700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>20400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2206,8 +2267,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2224,11 +2285,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>8000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2236,11 +2297,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2254,8 +2315,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,73 +2469,76 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>-200</v>
       </c>
       <c r="T32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>-100</v>
@@ -2476,82 +2546,88 @@
       <c r="Z32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>194800</v>
+      </c>
+      <c r="E33" s="3">
         <v>182900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>133400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>117100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>267800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>61200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>75000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>103700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>36800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>50600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>87800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>34700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>29800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>40300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>43000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>32100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>30500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>33000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>53700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>20700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>20400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>194800</v>
+      </c>
+      <c r="E35" s="3">
         <v>182900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>133400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>117100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>267800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>61200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>75000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>103700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>36800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>50600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>87800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>29800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>40300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>43000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>32100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>30500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>33000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>53700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>20700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>20400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E38" s="2">
         <v>44646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44464</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44282</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,82 +2919,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>138100</v>
+      </c>
+      <c r="E41" s="3">
         <v>73800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>286700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>138600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>436500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>346200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>168300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>64500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>26300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>27500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>25300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>28300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>22000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>24600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>31000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>34100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2916,369 +3006,384 @@
         <v>35500</v>
       </c>
       <c r="E42" s="3">
+        <v>35500</v>
+      </c>
+      <c r="F42" s="3">
         <v>36500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>33700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>33800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>31400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>24300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>20500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>18500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>15800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>5900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>10300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1066000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1102100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>748200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>801900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>984800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>811500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>480500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>587200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>527300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>469200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>382000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>483000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>489600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>456600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>364500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>469200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>497000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>432800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>335000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>422500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>398500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>368800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>293700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>351200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1106300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1230400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>963300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>900700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1026500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>823400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>567300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>528700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>459400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>510700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>486900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>479400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>528700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>580200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>556200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>510100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>531900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>521700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>460300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>412500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>438400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>472000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>397200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>369900</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E45" s="3">
         <v>30700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>47900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>29500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>37300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>48200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>41600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>33400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>41700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>53200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>28600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>20700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>22900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>21600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>21100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2376400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2472400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2073500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1922800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2122500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1737100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1538400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1512100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1236600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1060900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1093100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1092100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1097100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1103500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>995300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1046900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1112600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1043700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>863500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>888600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>894900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>899300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>756400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>790800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3351,156 +3456,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>733000</v>
+      </c>
+      <c r="E48" s="3">
         <v>700800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>685700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>647400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>630800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>586800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>494400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>483400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>478600</v>
       </c>
       <c r="L48" s="3">
         <v>478600</v>
       </c>
       <c r="M48" s="3">
+        <v>478600</v>
+      </c>
+      <c r="N48" s="3">
         <v>467300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>460400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>439200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>422300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>354700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>346300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>340700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>313600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>328600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>325100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>316000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>309900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>297900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>284500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>445800</v>
+      </c>
+      <c r="E49" s="3">
         <v>445200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>431400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>393700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>424100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>415400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>331800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>311500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>300000</v>
       </c>
       <c r="L49" s="3">
         <v>300000</v>
       </c>
       <c r="M49" s="3">
+        <v>300000</v>
+      </c>
+      <c r="N49" s="3">
         <v>285200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>286600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>273800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>271300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>273000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>261700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>263000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>254500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>255000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>255700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>253500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>250200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>227600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>224200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,82 +3764,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E52" s="3">
         <v>55500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>54600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>50400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>50900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>46900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>40300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>43600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>43400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>43500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>41500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>40500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>24400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>24600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>22300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>20300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>19600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>17700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>18300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,82 +3918,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3610800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3674000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3245300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3014200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3228300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2786100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2404900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2350600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2058600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1883000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1889500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1880600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1850700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1821400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1647500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1677200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1736600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1631500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1464700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1486900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1482000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1477700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1292100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1310600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,105 +4055,109 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>386800</v>
+      </c>
+      <c r="E57" s="3">
         <v>426000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>319100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>292900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>359500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>299400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>211500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>231100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>199300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>162000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>142500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>180800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>189600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>170700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>136900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>175900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>197400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>176500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>140100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>171800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>160300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>156000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>124700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E58" s="3">
         <v>104600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>59700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>34300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>47200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2800</v>
       </c>
       <c r="K58" s="3">
         <v>2800</v>
@@ -4035,342 +4169,357 @@
         <v>2800</v>
       </c>
       <c r="N58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>25100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>27500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>31300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>34200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>30500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>27200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>28800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>25100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>23800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>22400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>384700</v>
+      </c>
+      <c r="E59" s="3">
         <v>372600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>397200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>361800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>337500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>264400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>252100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>259700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>233100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>164400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>208700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>204500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>164800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>131000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>145800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>151100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>138800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>106200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>136000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>138400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>126200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>98000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>124700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>824000</v>
+      </c>
+      <c r="E60" s="3">
         <v>903200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>776000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>665700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>731300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>611000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>463700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>493600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>435200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>329300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>354000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>385400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>379600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>320600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>310200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>358300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>370400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>313100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>303200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>339000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>311600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>277800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>271800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>310200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>276300</v>
+      </c>
+      <c r="E61" s="3">
         <v>379000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>277600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>310100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>571900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>426300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>311600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>311300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>161100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>160600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>160900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>162900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>187500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>266400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>202100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>186500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>276300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>261300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>144700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>145900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>204800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>252900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>109100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>185400</v>
+      </c>
+      <c r="E62" s="3">
         <v>173600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>175100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>161000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>165500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>162200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>146400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>131900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>123000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>120900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>116800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>103200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>100300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>96000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>46600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>42300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>40100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>42700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>52000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>49300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>49600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>50800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,82 +4746,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1330700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1496100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1266700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1163500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1491800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1219900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>944600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>953000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>734200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>622300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>645800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>665200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>683300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>698500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>574100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>601100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>704100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>629900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>505200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>551100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>580300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>593100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>442900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>473700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4915,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,82 +5160,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1950900</v>
+      </c>
+      <c r="E72" s="3">
         <v>1851800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1678100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1552600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1440800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1276700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1182700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1127400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1057800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>999000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>995000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>969600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>917700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>875500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>839900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>841400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>800200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>768200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>736200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>715500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>684800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>670100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>649100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>637500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,82 +5468,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2280100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2177900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1978600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1850800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1736500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1566200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1460300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1397600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1324400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1260700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1243700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1215500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1167400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1122900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1073400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1076100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1032500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1001600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>959500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>935800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>901700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>884500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>849200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>837000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E80" s="2">
         <v>44646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44464</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44282</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>194800</v>
+      </c>
+      <c r="E81" s="3">
         <v>182900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>133400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>117100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>267800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>61200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>75000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>103700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>36800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>50600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>87800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>34700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>29800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>40300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>43000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>32100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>30500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>33000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>53700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>20700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>20400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,82 +5812,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E83" s="3">
         <v>26500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>45500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>18600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>25600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>12700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,82 +6272,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>335400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-245000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>230700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>397500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-115700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-196700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>151400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>37900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>147200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-46200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>151200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>127100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>70900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-55800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>56600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>96200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>48100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-84200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>39200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>82100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>15200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-70700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>36100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,82 +6380,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-41100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-79000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-46700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-42500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-30000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-34500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-16500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-71800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,82 +6609,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-59700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-82900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-514000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-296500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-53800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-66200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-47700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-35600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-64400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-99900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-70600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-27000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-170800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,56 +6717,57 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-12500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-12400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-9300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-18600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-9300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-7600</v>
       </c>
       <c r="J96" s="3">
         <v>-7600</v>
       </c>
       <c r="K96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="L96" s="3">
         <v>-15400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-7700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-12300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-12300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-11000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6541,25 +6775,28 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-10400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-9200</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,226 +7023,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-211300</v>
+      </c>
+      <c r="E100" s="3">
         <v>86300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-271500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>237900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>101900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>142200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-47000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-39700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-25000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-30300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>61100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-19400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-91000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>111600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-63300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>74500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>141700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-10800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-216700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>135000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>111300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-391700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-391600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>89700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>145600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>32600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-135800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>103400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>43700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-16900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>28900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-9000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-50800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>UFPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,345 +665,358 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E7" s="2">
         <v>44737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2900900</v>
+        <v>2322900</v>
       </c>
       <c r="E8" s="3">
+        <v>5390200</v>
+      </c>
+      <c r="F8" s="3">
         <v>2489300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2016800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2093800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4525500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1825000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1393700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1486200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2274100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1032100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>998000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1163000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2254900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1015100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>988200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1212700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1294400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>993900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>966100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1056600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1918500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>846100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>859600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>826700</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2397400</v>
+        <v>1872700</v>
       </c>
       <c r="E9" s="3">
+        <v>4408400</v>
+      </c>
+      <c r="F9" s="3">
         <v>2011000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1645200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1766200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3817700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1538500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1206700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1245200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1901900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>864800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>840800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>975800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1914000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>860900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>850500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1054000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1128800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>863000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>836900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>911900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1649500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>725400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>737300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>503500</v>
+        <v>450200</v>
       </c>
       <c r="E10" s="3">
+        <v>981800</v>
+      </c>
+      <c r="F10" s="3">
         <v>478400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>371600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>327600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>707800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>286600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>187000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>241000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>372200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>167300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>157200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>187200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>341000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>154200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>137700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>158700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>165600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>130900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>129200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>144700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>269000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>120700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>122300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,8 +1044,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,8 +1122,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,8 +1202,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1262,8 +1282,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1339,8 +1362,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,162 +1391,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2615300</v>
+        <v>2085800</v>
       </c>
       <c r="E17" s="3">
+        <v>4845600</v>
+      </c>
+      <c r="F17" s="3">
         <v>2230300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1821800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1925700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4151100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1687500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1305500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1379600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2123100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>973400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>946300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1092600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2132300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>966700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>942700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1155700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1233800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>949600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>924600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1004300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1830800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>812300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>824300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>783100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>285600</v>
+        <v>237100</v>
       </c>
       <c r="E18" s="3">
+        <v>544600</v>
+      </c>
+      <c r="F18" s="3">
         <v>259000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>195000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>168100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>374400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>137500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>88200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>106600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>151000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>58700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>51700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>70400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>122600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>48400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>45500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>57000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>60600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>44300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>41500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>52300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>87700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>33800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>35300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,76 +1581,77 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5200</v>
+        <v>-2900</v>
       </c>
       <c r="E20" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="S20" s="3">
-        <v>200</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
       </c>
       <c r="U20" s="3">
+        <v>200</v>
+      </c>
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>100</v>
       </c>
       <c r="Z20" s="3">
         <v>100</v>
@@ -1625,117 +1659,123 @@
       <c r="AA20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>306700</v>
+        <v>263700</v>
       </c>
       <c r="E21" s="3">
+        <v>590600</v>
+      </c>
+      <c r="F21" s="3">
         <v>283900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>223400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>192400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>422500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>161900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>110700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>126800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>185500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>73100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>71000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>88100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>157100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>66400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>60400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>73100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>75700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>58900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>55500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>66300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>113800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>46400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>48200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>54100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E22" s="3">
-        <v>3300</v>
+        <v>6700</v>
       </c>
       <c r="F22" s="3">
         <v>3300</v>
       </c>
       <c r="G22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H22" s="3">
         <v>3400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1900</v>
       </c>
       <c r="N22" s="3">
         <v>1900</v>
@@ -1744,197 +1784,206 @@
         <v>1900</v>
       </c>
       <c r="P22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q22" s="3">
         <v>4900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>277000</v>
+        <v>230700</v>
       </c>
       <c r="E23" s="3">
+        <v>531100</v>
+      </c>
+      <c r="F23" s="3">
         <v>254100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>193100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>163400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>369900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>136000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>88100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>105700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>147200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>53900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>51600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>69000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>120100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>47600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>40900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>55300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>58600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>43200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>40300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>50900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>84800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>32400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>34100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>69100</v>
+        <v>58600</v>
       </c>
       <c r="E24" s="3">
+        <v>130100</v>
+      </c>
+      <c r="F24" s="3">
         <v>61000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>46100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>37600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>90300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>31800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>37000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>16300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>28600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>11900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,162 +2059,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>207900</v>
+        <v>172100</v>
       </c>
       <c r="E26" s="3">
+        <v>401000</v>
+      </c>
+      <c r="F26" s="3">
         <v>193100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>147000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>125700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>279600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>104300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>64800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>78900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>110300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>40600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>52600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>91100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>36000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>23600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>42100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>45100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>33600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>43500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>34700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>56200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>21600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>22200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>194800</v>
+        <v>160400</v>
       </c>
       <c r="E27" s="3">
+        <v>377700</v>
+      </c>
+      <c r="F27" s="3">
         <v>182900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>133400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>117100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>267800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>61200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>75000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>103700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>39100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>36800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>50600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>87800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>34700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>21800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>40300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>43000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>32100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>40800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>33000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>53700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>20700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>20400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2299,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2270,8 +2331,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2288,11 +2349,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>8000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2300,11 +2361,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2318,8 +2379,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,76 +2539,79 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5200</v>
+        <v>2900</v>
       </c>
       <c r="E32" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-200</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
       </c>
       <c r="U32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-100</v>
       </c>
       <c r="Z32" s="3">
         <v>-100</v>
@@ -2549,85 +2619,91 @@
       <c r="AA32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>194800</v>
+        <v>160400</v>
       </c>
       <c r="E33" s="3">
+        <v>377700</v>
+      </c>
+      <c r="F33" s="3">
         <v>182900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>133400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>117100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>267800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>61200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>103700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>39100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>36800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>50600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>87800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>34700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>29800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>40300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>43000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>32100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>30500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>33000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>53700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>20700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>20400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2779,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>194800</v>
+        <v>160400</v>
       </c>
       <c r="E35" s="3">
+        <v>377700</v>
+      </c>
+      <c r="F35" s="3">
         <v>182900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>133400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>117100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>267800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>61200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>103700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>39100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>36800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>50600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>87800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>34700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>29800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>40300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>43000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>32100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>30500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>33000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>53700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>20700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>20400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E38" s="2">
         <v>44737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,470 +3006,489 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>449100</v>
+      </c>
+      <c r="E41" s="3">
         <v>138100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>73800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>286700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>138600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>436500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>346200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>168300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>64500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>26300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>27500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>28300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>22000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>24600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>31000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>34100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35500</v>
+        <v>33100</v>
       </c>
       <c r="E42" s="3">
         <v>35500</v>
       </c>
       <c r="F42" s="3">
+        <v>35500</v>
+      </c>
+      <c r="G42" s="3">
         <v>36500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>33700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>33800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>31400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>24300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>20500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>18500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>17000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>15800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>11300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>5900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>10300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>915000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1066000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1102100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>748200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>801900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>984800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>811500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>480500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>587200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>527300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>469200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>382000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>483000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>489600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>456600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>364500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>469200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>497000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>432800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>335000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>422500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>398500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>368800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>293700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>351200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1006900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1106300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1230400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>963300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>900700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1026500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>823400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>567300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>528700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>459400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>510700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>486900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>479400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>528700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>580200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>556200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>510100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>531900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>521700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>460300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>412500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>438400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>472000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>397200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>369900</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E45" s="3">
         <v>30600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>47900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>33100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>29700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>37300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>48200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>41600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>33400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>32500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>41700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>53200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>28600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>20700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>22900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>21600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>21100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2436400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2376400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2472400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2073500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1922800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2122500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1737100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1538400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1512100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1236600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1060900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1093100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1092100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1097100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1103500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>995300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1046900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1112600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1043700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>863500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>888600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>894900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>899300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>756400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>790800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3459,162 +3564,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>745000</v>
+      </c>
+      <c r="E48" s="3">
         <v>733000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>700800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>685700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>647400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>630800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>586800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>494400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>483400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>478600</v>
       </c>
       <c r="M48" s="3">
         <v>478600</v>
       </c>
       <c r="N48" s="3">
+        <v>478600</v>
+      </c>
+      <c r="O48" s="3">
         <v>467300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>460400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>439200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>422300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>354700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>346300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>340700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>313600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>328600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>325100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>316000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>309900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>297900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>284500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>440400</v>
+      </c>
+      <c r="E49" s="3">
         <v>445800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>445200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>431400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>393700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>424100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>415400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>331800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>311500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>300000</v>
       </c>
       <c r="M49" s="3">
         <v>300000</v>
       </c>
       <c r="N49" s="3">
+        <v>300000</v>
+      </c>
+      <c r="O49" s="3">
         <v>285200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>286600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>273800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>271300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>273000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>261700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>263000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>254500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>255000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>255700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>253500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>250200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>227600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>224200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,85 +3884,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E52" s="3">
         <v>55600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>55500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>54600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>50400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>50900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>46900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>40300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>43600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>43400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>43900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>41500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>40500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>24400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>24600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>22300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>20300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>19600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>17500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>17700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>18300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4044,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3738500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3610800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3674000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3245300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3014200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3228300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2786100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2404900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2350600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2058600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1883000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1889500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1880600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1850700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1821400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1647500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1677200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1736600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1631500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1464700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1486900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1482000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1477700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1292100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1310600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,111 +4186,115 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>323400</v>
+      </c>
+      <c r="E57" s="3">
         <v>386800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>426000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>319100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>292900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>359500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>299400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>211500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>231100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>199300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>162000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>142500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>180800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>189600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>170700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>136900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>175900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>197400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>176500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>140100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>171800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>160300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>156000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>124700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E58" s="3">
         <v>52400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>104600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>59700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>34300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>47200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2800</v>
       </c>
       <c r="L58" s="3">
         <v>2800</v>
@@ -4172,354 +4306,369 @@
         <v>2800</v>
       </c>
       <c r="O58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>25100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>27500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>31300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>34200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>30500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>27200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>28800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>25100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>23800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>22400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>433700</v>
+      </c>
+      <c r="E59" s="3">
         <v>384700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>372600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>397200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>361800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>337500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>264400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>252100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>259700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>233100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>164400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>208700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>204500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>164800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>131000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>145800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>151100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>138800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>106200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>136000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>138400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>126200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>98000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>124700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>802900</v>
+      </c>
+      <c r="E60" s="3">
         <v>824000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>903200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>776000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>665700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>731300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>611000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>463700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>493600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>435200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>329300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>354000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>385400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>379600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>320600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>310200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>358300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>370400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>313100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>303200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>339000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>311600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>277800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>271800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>310200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>275400</v>
+      </c>
+      <c r="E61" s="3">
         <v>276300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>379000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>277600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>310100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>571900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>426300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>311600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>311300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>161100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>160600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>160900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>162900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>187500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>266400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>202100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>186500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>276300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>261300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>144700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>145900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>204800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>252900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>109100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E62" s="3">
         <v>185400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>173600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>175100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>161000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>165500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>162200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>146400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>131900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>123000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>120900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>116800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>103200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>100300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>96000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>46600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>42300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>40100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>42700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>52000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>49300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>49600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>50800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +4904,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1301500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1330700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1496100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1266700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1163500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1491800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1219900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>944600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>953000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>734200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>622300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>645800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>665200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>683300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>698500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>574100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>601100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>704100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>629900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>505200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>551100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>580300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>593100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>442900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>473700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5086,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5334,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2102800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1950900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1851800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1678100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1552600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1440800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1276700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1182700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1127400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1057800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>999000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>995000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>969600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>917700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>875500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>839900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>841400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>800200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>768200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>736200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>715500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>684800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>670100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>649100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>637500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5654,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2437100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2280100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2177900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1978600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1850800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1736500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1566200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1460300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1397600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1324400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1260700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1243700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1215500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1167400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1122900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1073400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1076100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1032500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1001600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>959500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>935800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>901700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>884500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>849200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>837000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +5814,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E80" s="2">
         <v>44737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>194800</v>
+        <v>160400</v>
       </c>
       <c r="E81" s="3">
+        <v>377700</v>
+      </c>
+      <c r="F81" s="3">
         <v>182900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>133400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>117100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>267800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>61200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>103700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>39100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>36800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>50600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>87800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>34700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>29800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>40300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>43000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>32100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>30500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>33000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>53700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>20700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>20400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,85 +6011,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26300</v>
+        <v>29600</v>
       </c>
       <c r="E83" s="3">
+        <v>52800</v>
+      </c>
+      <c r="F83" s="3">
         <v>26500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>25600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>45500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>16600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>25600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>12500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>12700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6489,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>335400</v>
+        <v>442600</v>
       </c>
       <c r="E89" s="3">
+        <v>90400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-245000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>230700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>397500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-115700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-196700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>151400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>37900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>147200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-46200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>151200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>127100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>70900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-55800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>56600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>96200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>48100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-84200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>39200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>82100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>15200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-70700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>36100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,85 +6601,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39600</v>
+        <v>-42100</v>
       </c>
       <c r="E91" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-32100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-41100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-31100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-79000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-46700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-42500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-30000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-24400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-34500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-16500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-71800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +6839,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-59000</v>
+        <v>-103800</v>
       </c>
       <c r="E94" s="3">
+        <v>-118800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-59700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-82900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-514000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-296500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-53800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-66200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-36100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-58200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-47700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-35600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-64400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-99900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-70600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-27000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-170800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,59 +6951,60 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-15500</v>
+        <v>-15400</v>
       </c>
       <c r="E96" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-12500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-12400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-9300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-18600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-9300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-7600</v>
       </c>
       <c r="K96" s="3">
         <v>-7600</v>
       </c>
       <c r="L96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="M96" s="3">
         <v>-15400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-7700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-12300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-11000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6778,25 +7012,28 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-10400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-9200</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,235 +7269,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-211300</v>
+        <v>-26600</v>
       </c>
       <c r="E100" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="F100" s="3">
         <v>86300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-271500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>237900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>101900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>142200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-47000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-39700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-25000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>61100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-91000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>111600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-16500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-63300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>74500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>141700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-10800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-800</v>
+        <v>-1100</v>
       </c>
       <c r="E101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>64300</v>
+        <v>311100</v>
       </c>
       <c r="E102" s="3">
+        <v>-152400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-216700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>135000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>111300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-391700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-391600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>89700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>145600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>32600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-135800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>103400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>43700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-16900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>28900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-50800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>UFPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,358 +665,370 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44828</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44737</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1913700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2322900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5390200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2489300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2016800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2093800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4525500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1825000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1393700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1486200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2274100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1032100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>998000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1163000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2254900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1015100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>988200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1212700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1294400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>993900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>966100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1056600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1918500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>846100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>859600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>826700</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1556200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1872700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4408400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2011000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1645200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1766200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3817700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1538500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1206700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1245200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1901900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>864800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>840800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>975800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1914000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>860900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>850500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1054000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1128800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>863000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>836900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>911900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1649500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>725400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>737300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>357500</v>
+      </c>
+      <c r="E10" s="3">
         <v>450200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>981800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>478400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>371600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>327600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>707800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>286600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>187000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>241000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>372200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>167300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>157200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>187200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>341000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>154200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>137700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>158700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>165600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>130900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>129200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>144700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>269000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>120700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>122300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,8 +1057,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1125,8 +1138,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,8 +1221,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1285,8 +1304,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1365,8 +1387,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,168 +1417,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1745100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2085800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4845600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2230300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1821800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1925700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4151100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1687500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1305500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1379600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2123100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>973400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>946300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1092600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2132300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>966700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>942700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1155700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1233800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>949600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>924600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1004300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1830800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>812300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>824300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>783100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>168600</v>
+      </c>
+      <c r="E18" s="3">
         <v>237100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>544600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>259000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>195000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>168100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>374400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>137500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>88200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>106600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>151000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>58700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>51700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>70400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>122600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>48400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>45500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>57000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>60600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>44300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>41500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>52300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>87700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>33800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>35300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,79 +1614,80 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>200</v>
       </c>
       <c r="V20" s="3">
+        <v>200</v>
+      </c>
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>400</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>100</v>
       </c>
       <c r="AA20" s="3">
         <v>100</v>
@@ -1662,123 +1695,129 @@
       <c r="AB20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E21" s="3">
         <v>263700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>590600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>283900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>223400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>192400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>422500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>161900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>110700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>126800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>185500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>73100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>71000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>88100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>157100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>66400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>60400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>73100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>75700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>58900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>55500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>66300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>113800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>46400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>48200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>54100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E22" s="3">
         <v>3500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3300</v>
       </c>
       <c r="G22" s="3">
         <v>3300</v>
       </c>
       <c r="H22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I22" s="3">
         <v>3400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1900</v>
       </c>
       <c r="O22" s="3">
         <v>1900</v>
@@ -1787,203 +1826,212 @@
         <v>1900</v>
       </c>
       <c r="Q22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R22" s="3">
         <v>4900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E23" s="3">
         <v>230700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>531100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>254100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>193100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>163400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>369900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>136000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>88100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>105700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>147200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>53900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>51600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>69000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>120100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>47600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>40900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>55300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>58600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>43200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>40300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>50900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>84800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>32400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>34100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E24" s="3">
         <v>58600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>130100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>61000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>46100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>37600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>90300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>31800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>17300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>16300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>28600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>10800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>11900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,168 +2110,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>131900</v>
+      </c>
+      <c r="E26" s="3">
         <v>172100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>401000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>193100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>147000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>125700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>279600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>104300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>64800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>78900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>110300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>40600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>38700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>52600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>91100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>36000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>42100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>45100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>33600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>43500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>34700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>56200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>21600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>22200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E27" s="3">
         <v>160400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>377700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>182900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>133400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>117100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>267800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>61200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>75000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>103700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>50600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>87800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>34700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>21800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>40300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>43000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>32100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>40800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>33000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>53700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>20700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>20400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,8 +2359,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2334,8 +2394,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2352,11 +2412,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>8000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2364,11 +2424,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2382,8 +2442,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,79 +2608,82 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>-200</v>
       </c>
       <c r="V32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-100</v>
       </c>
       <c r="AA32" s="3">
         <v>-100</v>
@@ -2622,88 +2691,94 @@
       <c r="AB32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E33" s="3">
         <v>160400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>377700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>182900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>133400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>117100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>267800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>61200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>75000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>103700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>36800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>50600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>87800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>34700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>29800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>40300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>43000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>32100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>30500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>33000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>53700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>20700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>20400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,173 +2857,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E35" s="3">
         <v>160400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>377700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>182900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>133400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>117100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>267800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>61200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>75000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>103700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>36800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>50600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>87800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>34700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>29800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>40300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>43000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>32100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>30500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>33000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>53700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>20700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>20400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44828</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44737</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44464</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,488 +3092,507 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>559400</v>
+      </c>
+      <c r="E41" s="3">
         <v>449100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>138100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>73800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>286700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>138600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>436500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>346200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>32100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>168300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>64500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>27300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>26300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>27500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>28300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>22000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>24600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>31000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>34100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E42" s="3">
         <v>33100</v>
-      </c>
-      <c r="E42" s="3">
-        <v>35500</v>
       </c>
       <c r="F42" s="3">
         <v>35500</v>
       </c>
       <c r="G42" s="3">
+        <v>35500</v>
+      </c>
+      <c r="H42" s="3">
         <v>36500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>33700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>33800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>31400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>24300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>18500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>17000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>11300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>10400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>5900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>10300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>657500</v>
+      </c>
+      <c r="E43" s="3">
         <v>915000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1066000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1102100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>748200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>801900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>984800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>811500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>480500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>587200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>527300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>469200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>382000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>483000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>489600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>456600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>364500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>469200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>497000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>432800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>335000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>422500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>398500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>368800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>293700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>351200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>973200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1006900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1106300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1230400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>963300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>900700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1026500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>823400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>567300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>528700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>459400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>510700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>486900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>479400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>528700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>580200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>556200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>510100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>531900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>521700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>460300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>412500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>438400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>472000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>397200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>369900</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E45" s="3">
         <v>32200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>47900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>33100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>30100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>37300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>48200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>41600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>33400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>32500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>25400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>41700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>53200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>28600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>20700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>22900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>21600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>21100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2262100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2436400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2376400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2472400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2073500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1922800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2122500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1737100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1538400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1512100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1236600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1060900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1093100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1092100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1097100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1103500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>995300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1046900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1112600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1043700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>863500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>888600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>894900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>899300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>756400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>790800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3567,168 +3671,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>796500</v>
+      </c>
+      <c r="E48" s="3">
         <v>745000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>733000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>700800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>685700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>647400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>630800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>586800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>494400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>483400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>478600</v>
       </c>
       <c r="N48" s="3">
         <v>478600</v>
       </c>
       <c r="O48" s="3">
+        <v>478600</v>
+      </c>
+      <c r="P48" s="3">
         <v>467300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>460400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>439200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>422300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>354700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>346300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>340700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>313600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>328600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>325100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>316000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>309900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>297900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>284500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>488600</v>
+      </c>
+      <c r="E49" s="3">
         <v>440400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>445800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>445200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>431400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>393700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>424100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>415400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>331800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>311500</v>
-      </c>
-      <c r="M49" s="3">
-        <v>300000</v>
       </c>
       <c r="N49" s="3">
         <v>300000</v>
       </c>
       <c r="O49" s="3">
+        <v>300000</v>
+      </c>
+      <c r="P49" s="3">
         <v>285200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>286600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>273800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>271300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>273000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>261700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>263000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>254500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>255000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>255700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>253500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>250200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>227600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>224200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,88 +4003,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>124900</v>
+      </c>
+      <c r="E52" s="3">
         <v>116800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>55600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>55500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>54600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>50400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>50900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>46900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>40300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>43600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>43500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>43900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>41500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>40500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>24400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>24600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>22300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>20300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>19600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>17600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>17500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>17700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>18300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>10200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,88 +4169,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3672100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3738500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3610800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3674000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3245300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3014200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3228300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2786100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2404900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2350600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2058600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1883000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1889500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1880600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1850700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1821400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1647500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1677200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1736600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1631500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1464700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1486900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1482000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1477700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1292100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1310600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,117 +4316,121 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>206900</v>
+      </c>
+      <c r="E57" s="3">
         <v>323400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>386800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>426000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>319100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>292900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>359500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>299400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>211500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>231100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>199300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>162000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>142500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>180800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>189600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>170700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>136900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>175900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>197400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>176500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>140100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>171800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>160300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>156000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>124700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>45700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>52400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>104600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>59700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>34300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>47200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2800</v>
       </c>
       <c r="M58" s="3">
         <v>2800</v>
@@ -4309,366 +4442,381 @@
         <v>2800</v>
       </c>
       <c r="P58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>25100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>18900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>27500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>31300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>34200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>30500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>27200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>28800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>25100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>23800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>22400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E59" s="3">
         <v>433700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>384700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>372600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>397200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>361800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>337500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>264400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>252100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>259700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>233100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>164400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>208700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>204500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>164800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>131000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>145800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>151100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>138800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>106200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>136000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>138400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>126200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>98000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>124700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>611800</v>
+      </c>
+      <c r="E60" s="3">
         <v>802900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>824000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>903200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>776000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>665700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>731300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>611000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>463700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>493600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>435200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>329300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>354000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>385400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>379600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>320600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>310200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>358300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>370400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>313100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>303200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>339000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>311600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>277800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>271800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>310200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>275200</v>
+      </c>
+      <c r="E61" s="3">
         <v>275400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>276300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>379000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>277600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>310100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>571900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>426300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>311600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>311300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>161100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>160600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>160900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>162900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>187500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>266400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>202100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>186500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>276300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>261300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>144700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>145900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>204800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>252900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>109100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E62" s="3">
         <v>184000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>185400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>173600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>175100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>161000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>165500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>162200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>146400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>131900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>123000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>120900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>116800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>103200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>100300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>96000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>46600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>40600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>42300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>40100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>42700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>52000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>49300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>49600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>50800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,88 +5061,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1108100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1301500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1330700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1496100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1266700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1163500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1491800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1219900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>944600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>953000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>734200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>622300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>645800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>665200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>683300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>698500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>574100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>601100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>704100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>629900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>505200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>551100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>580300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>593100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>442900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>473700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5257,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,88 +5507,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2217400</v>
+      </c>
+      <c r="E72" s="3">
         <v>2102800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1950900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1851800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1678100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1552600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1440800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1276700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1182700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1127400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1057800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>999000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>995000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>969600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>917700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>875500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>839900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>841400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>800200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>768200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>736200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>715500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>684800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>670100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>649100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>637500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,88 +5839,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2564000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2437100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2280100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2177900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1978600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1850800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1736500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1566200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1460300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1397600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1324400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1260700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1243700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1215500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1167400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1122900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1073400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1076100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1032500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1001600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>959500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>935800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>901700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>884500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>849200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>837000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,173 +6005,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44828</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44737</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44464</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E81" s="3">
         <v>160400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>377700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>182900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>133400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>117100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>267800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>61200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>75000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>103700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>36800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>50600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>87800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>34700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>29800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>40300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>43000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>32100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>30500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>33000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>53700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>20700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>20400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,88 +6209,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E83" s="3">
         <v>29600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>52800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>26500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>25600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>45500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>16300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>16600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>14900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>25600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>12500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>12700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,88 +6705,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>298500</v>
+      </c>
+      <c r="E89" s="3">
         <v>442600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>90400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-245000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>230700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>397500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-115700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-196700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>151400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>37900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>147200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-46200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>151200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>127100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>70900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-55800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>56600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>96200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>48100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-84200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>39200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>82100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>15200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-70700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>36100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,88 +6821,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-71700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-32100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-41100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-79000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-42500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-30000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-24400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-22600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-34500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-16500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-71800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,88 +7068,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-131300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-103800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-118800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-59700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-82900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-514000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-296500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-53800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-66200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-48200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-36100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-58200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-47700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-35600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-22500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-64400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-16300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-21500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-99900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-70600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-27000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-170800</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,8 +7184,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6961,53 +7194,53 @@
         <v>-15400</v>
       </c>
       <c r="E96" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-28000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-12500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-12400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-9300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-18600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-9300</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-7600</v>
       </c>
       <c r="L96" s="3">
         <v>-7600</v>
       </c>
       <c r="M96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="N96" s="3">
         <v>-15400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-7700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-12300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-12300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-11000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7015,25 +7248,28 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-10400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,244 +7514,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-26600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-125000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>86300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-271500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>237900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>101900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>142200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-47000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-39700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-30300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>61100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-91000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>111600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-16500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-63300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>74500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>141700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-10800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E102" s="3">
         <v>311100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-152400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-216700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>135000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>111300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-391700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-391600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>89700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>145600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>32600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-135800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>103400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>43700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-16900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>28900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-50800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>UFPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,370 +665,383 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44828</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44464</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1822500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1913700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2322900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5390200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2489300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2016800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2093800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4525500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1825000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1393700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1486200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2274100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1032100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>998000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1163000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2254900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1015100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>988200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1212700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1294400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>993900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>966100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1056600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1918500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>846100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>859600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>826700</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1464100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1556200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1872700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4408400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2011000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1645200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1766200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3817700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1538500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1206700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1245200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1901900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>864800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>840800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>975800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1914000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>860900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>850500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1054000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1128800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>863000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>836900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>911900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1649500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>725400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>737300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>358400</v>
+      </c>
+      <c r="E10" s="3">
         <v>357500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>450200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>981800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>478400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>371600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>327600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>707800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>286600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>187000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>241000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>372200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>167300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>157200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>187200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>341000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>154200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>137700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>158700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>165600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>130900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>129200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>144700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>269000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>120700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>122300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1058,8 +1071,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1141,8 +1155,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,8 +1241,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1307,8 +1327,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1390,8 +1413,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,174 +1444,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1660800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1745100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2085800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4845600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2230300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1821800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1925700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4151100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1687500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1305500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1379600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2123100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>973400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>946300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1092600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2132300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>966700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>942700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1155700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1233800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>949600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>924600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1004300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1830800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>812300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>824300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>783100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>161700</v>
+      </c>
+      <c r="E18" s="3">
         <v>168600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>237100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>544600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>259000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>195000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>168100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>374400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>137500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>88200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>106600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>151000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>58700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>51700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>70400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>122600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>48400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>45500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>57000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>60600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>44300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>41500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>52300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>87700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>33800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>35300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,82 +1648,83 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E20" s="3">
         <v>8200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="U20" s="3">
-        <v>200</v>
       </c>
       <c r="V20" s="3">
         <v>200</v>
       </c>
       <c r="W20" s="3">
+        <v>200</v>
+      </c>
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>400</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>100</v>
       </c>
       <c r="AB20" s="3">
         <v>100</v>
@@ -1698,129 +1732,135 @@
       <c r="AC20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>198500</v>
+      </c>
+      <c r="E21" s="3">
         <v>208000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>263700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>590600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>283900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>223400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>192400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>422500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>161900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>110700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>126800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>185500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>73100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>71000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>88100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>157100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>66400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>60400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>73100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>75700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>58900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>55500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>66300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>113800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>46400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>48200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>54100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E22" s="3">
         <v>3700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3300</v>
       </c>
       <c r="H22" s="3">
         <v>3300</v>
       </c>
       <c r="I22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1900</v>
       </c>
       <c r="P22" s="3">
         <v>1900</v>
@@ -1829,209 +1869,218 @@
         <v>1900</v>
       </c>
       <c r="R22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S22" s="3">
         <v>4900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E23" s="3">
         <v>173000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>230700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>531100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>254100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>193100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>163400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>369900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>136000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>88100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>105700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>147200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>53900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>51600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>69000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>120100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>47600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>40900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>55300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>58600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>43200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>40300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>50900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>84800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>32400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>34100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E24" s="3">
         <v>41200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>58600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>130100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>61000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>46100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>37600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>90300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>26800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>37000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>17300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>9600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>16300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>28600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>10800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>11900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2113,174 +2162,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E26" s="3">
         <v>131900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>172100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>401000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>193100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>147000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>125700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>279600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>104300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>64800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>78900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>110300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>40600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>38700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>52600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>91100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>36000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>42100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>45100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>33600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>43500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>34700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>56200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>21600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>22200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E27" s="3">
         <v>127100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>160400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>377700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>182900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>133400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>117100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>267800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>61200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>75000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>103700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>50600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>87800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>34700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>21800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>40300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>43000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>32100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>40800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>33000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>53700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>20700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>20400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2362,8 +2420,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2397,8 +2458,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2415,11 +2476,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>8000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2427,11 +2488,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2445,8 +2506,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,82 +2678,85 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1600</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-200</v>
       </c>
       <c r="V32" s="3">
         <v>-200</v>
       </c>
       <c r="W32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>-100</v>
       </c>
       <c r="AB32" s="3">
         <v>-100</v>
@@ -2694,91 +2764,97 @@
       <c r="AC32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E33" s="3">
         <v>127100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>160400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>377700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>182900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>133400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>117100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>267800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>61200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>75000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>103700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>36800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>50600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>87800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>34700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>29800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>40300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>43000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>32100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>30500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>33000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>53700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>20700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>20400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,179 +2936,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E35" s="3">
         <v>127100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>160400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>377700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>182900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>133400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>117100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>267800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>61200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>75000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>103700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>36800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>50600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>87800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>34700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>29800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>40300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>43000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>32100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>30500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>33000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>53700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>20700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>20400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44828</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44464</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,506 +3179,525 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>423300</v>
+      </c>
+      <c r="E41" s="3">
         <v>559400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>449100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>138100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>73800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>286700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>138600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>436500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>346200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>32100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>168300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>64500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>27300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>26300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>27500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>25300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>28300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>22000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>24600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>31000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>34100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E42" s="3">
         <v>36000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>33100</v>
-      </c>
-      <c r="F42" s="3">
-        <v>35500</v>
       </c>
       <c r="G42" s="3">
         <v>35500</v>
       </c>
       <c r="H42" s="3">
+        <v>35500</v>
+      </c>
+      <c r="I42" s="3">
         <v>36500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>33700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>33800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>31400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>24300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>17800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>18500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>17000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>16200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>15800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>11300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>10800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>10400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>5900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>10300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>814800</v>
+      </c>
+      <c r="E43" s="3">
         <v>657500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>915000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1066000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1102100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>748200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>801900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>984800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>811500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>480500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>587200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>527300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>469200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>382000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>483000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>489600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>456600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>364500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>469200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>497000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>432800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>335000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>422500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>398500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>368800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>293700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>351200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>960300</v>
+      </c>
+      <c r="E44" s="3">
         <v>973200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1006900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1106300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1230400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>963300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>900700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1026500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>823400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>567300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>528700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>459400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>510700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>486900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>479400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>528700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>580200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>556200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>510100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>531900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>521700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>460300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>412500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>438400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>472000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>397200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>369900</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E45" s="3">
         <v>35900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>47900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>33100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>31100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>37300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>48200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>41600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>33400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>32500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>25400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>41700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>53200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>28600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>20700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>22900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>21600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>21100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2267000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2262100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2436400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2376400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2472400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2073500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1922800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2122500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1737100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1538400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1512100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1236600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1060900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1093100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1092100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1097100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1103500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>995300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1046900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1112600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1043700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>863500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>888600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>894900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>899300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>756400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>790800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3674,174 +3779,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>816700</v>
+      </c>
+      <c r="E48" s="3">
         <v>796500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>745000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>733000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>700800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>685700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>647400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>630800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>586800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>494400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>483400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>478600</v>
       </c>
       <c r="O48" s="3">
         <v>478600</v>
       </c>
       <c r="P48" s="3">
+        <v>478600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>467300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>460400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>439200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>422300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>354700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>346300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>340700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>313600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>328600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>325100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>316000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>309900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>297900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>284500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>487100</v>
+      </c>
+      <c r="E49" s="3">
         <v>488600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>440400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>445800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>445200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>431400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>393700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>424100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>415400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>331800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>311500</v>
-      </c>
-      <c r="N49" s="3">
-        <v>300000</v>
       </c>
       <c r="O49" s="3">
         <v>300000</v>
       </c>
       <c r="P49" s="3">
+        <v>300000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>285200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>286600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>273800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>271300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>273000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>261700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>263000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>254500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>255000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>255700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>253500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>250200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>227600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>224200</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,91 +4123,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E52" s="3">
         <v>124900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>116800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>55600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>55500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>54600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>50400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>50900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>46900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>40300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>43400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>43500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>43900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>41500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>40500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>24400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>24600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>22300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>20300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>19600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>17600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>17500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>17700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>18300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>10200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,91 +4295,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3696800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3672100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3738500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3610800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3674000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3245300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3014200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3228300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2786100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2404900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2350600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2058600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1883000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1889500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1880600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1850700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1821400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1647500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1677200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1736600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1631500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1464700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1486900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1482000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1477700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1292100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1310600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,123 +4447,127 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E57" s="3">
         <v>206900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>323400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>386800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>426000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>319100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>292900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>359500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>299400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>211500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>231100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>199300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>162000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>142500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>180800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>189600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>170700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>136900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>175900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>197400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>176500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>140100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>171800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>160300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>156000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>124700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>45700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>52400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>104600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>59700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>34300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2800</v>
       </c>
       <c r="N58" s="3">
         <v>2800</v>
@@ -4445,378 +4579,393 @@
         <v>2800</v>
       </c>
       <c r="Q58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>25100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>18900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>27500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>31300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>34200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>30500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>27200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>28800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>25100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>23800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>22400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>249400</v>
+      </c>
+      <c r="E59" s="3">
         <v>402000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>433700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>384700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>372600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>397200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>361800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>337500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>264400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>252100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>259700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>233100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>164400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>208700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>204500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>164800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>131000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>145800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>151100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>138800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>106200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>136000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>138400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>126200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>98000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>124700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>530400</v>
+      </c>
+      <c r="E60" s="3">
         <v>611800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>802900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>824000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>903200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>776000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>665700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>731300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>611000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>463700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>493600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>435200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>329300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>354000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>385400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>379600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>320600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>310200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>358300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>370400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>313100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>303200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>339000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>311600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>277800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>271800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>310200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E61" s="3">
         <v>275200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>275400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>276300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>379000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>277600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>310100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>571900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>426300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>311600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>311300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>161100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>160600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>160900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>162900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>187500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>266400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>202100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>186500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>276300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>261300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>144700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>145900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>204800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>252900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>109100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E62" s="3">
         <v>181400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>184000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>185400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>173600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>175100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>161000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>165500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>162200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>146400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>131900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>123000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>120900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>116800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>103200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>100300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>96000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>46600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>40600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>42300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>40100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>42700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>52000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>49300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>49600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>50800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4981,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,91 +5219,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1021000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1108100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1301500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1330700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1496100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1266700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1163500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1491800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1219900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>944600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>953000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>734200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>622300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>645800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>665200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>683300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>698500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>574100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>601100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>704100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>629900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>505200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>551100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>580300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>593100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>442900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>473700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5427,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,91 +5681,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2293000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2217400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2102800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1950900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1851800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1678100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1552600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1440800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1276700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1182700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1127400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1057800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>999000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>995000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>969600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>917700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>875500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>839900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>841400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>800200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>768200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>736200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>715500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>684800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>670100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>649100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>637500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,91 +6025,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2675800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2564000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2437100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2280100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2177900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1978600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1850800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1736500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1566200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1460300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1397600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1324400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1260700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1243700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1215500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1167400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1122900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1073400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1076100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1032500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1001600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>959500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>935800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>901700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>884500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>849200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>837000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,179 +6197,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44828</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44464</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E81" s="3">
         <v>127100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>160400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>377700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>182900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>133400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>117100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>267800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>61200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>75000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>103700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>36800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>50600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>87800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>34700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>29800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>40300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>43000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>32100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>30500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>33000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>53700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>20700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>20400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,91 +6408,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E83" s="3">
         <v>31200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>29600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>52800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>26500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>45500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>18600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>17200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>32100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>16300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>14900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>25600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>12500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>12700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,91 +6922,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E89" s="3">
         <v>298500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>442600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>90400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-245000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>230700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>397500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-115700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-196700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>151400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>37900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>147200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-46200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>151200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>127100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>70900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-55800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>56600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>96200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>48100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-84200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>39200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>82100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>15200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-70700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>36100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,91 +7042,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-60400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-42100</v>
       </c>
-      <c r="F91" s="3">
-        <v>-71700</v>
-      </c>
       <c r="G91" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-32100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-41100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-79000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-46700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-42500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-21300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-30000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-13900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-22600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-34500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-16500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-71800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,91 +7298,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-131300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-103800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-118800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-59700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-82900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-514000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-296500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-53800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-66200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-48200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-36100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-58200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-47700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-35600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-22500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-64400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-21500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-99900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-70600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-27000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-170800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,65 +7418,66 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-15400</v>
+        <v>-15600</v>
       </c>
       <c r="E96" s="3">
         <v>-15400</v>
       </c>
       <c r="F96" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="G96" s="3">
         <v>-28000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-12500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-12400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-9300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-18600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9300</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-7600</v>
       </c>
       <c r="M96" s="3">
         <v>-7600</v>
       </c>
       <c r="N96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="O96" s="3">
         <v>-15400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-7700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-12300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-11000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7251,25 +7485,28 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-10400</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-9200</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-9200</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,253 +7760,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-59400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-58600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-26600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-125000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>86300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-271500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>237900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>101900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>142200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-47000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-39700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-25000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-30300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>61100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-91000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>111600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-16500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-63300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>74500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>141700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-10800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-135600</v>
+      </c>
+      <c r="E102" s="3">
         <v>109800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>311100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-152400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-216700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>135000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>111300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-391700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-391600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>89700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>145600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>32600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-135800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>103400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>43700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-16900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-13500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>28900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-50800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>UFPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,383 +665,395 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44828</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2043900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1822500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1913700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2322900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5390200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2489300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2016800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2093800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4525500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1825000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1393700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1486200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2274100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1032100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>998000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1163000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2254900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1015100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>988200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1212700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1294400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>993900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>966100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1056600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1918500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>846100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>859600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>826700</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1643900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1464100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1556200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1872700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4408400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2011000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1645200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1766200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3817700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1538500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1206700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1245200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1901900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>864800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>840800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>975800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1914000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>860900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>850500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1054000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1128800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>863000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>836900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>911900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1649500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>725400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>737300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E10" s="3">
         <v>358400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>357500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>450200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>981800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>478400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>371600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>327600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>707800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>286600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>187000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>241000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>372200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>167300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>157200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>187200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>341000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>154200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>137700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>158700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>165600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>130900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>129200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>144700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>269000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>120700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>122300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1072,8 +1084,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1158,8 +1171,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1244,8 +1260,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1330,8 +1349,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1416,8 +1438,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,180 +1470,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1850400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1660800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1745100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2085800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4845600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2230300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1821800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1925700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4151100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1687500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1305500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1379600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2123100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>973400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>946300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1092600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2132300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>966700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>942700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1155700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1233800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>949600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>924600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1004300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1830800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>812300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>824300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>783100</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>193500</v>
+      </c>
+      <c r="E18" s="3">
         <v>161700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>168600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>237100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>544600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>259000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>195000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>168100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>374400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>137500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>88200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>106600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>151000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>58700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>51700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>70400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>122600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>48400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>45500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>57000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>60600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>44300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>41500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>52300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>87700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>33800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>35300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1649,85 +1681,86 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E20" s="3">
         <v>5900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="V20" s="3">
-        <v>200</v>
       </c>
       <c r="W20" s="3">
         <v>200</v>
       </c>
       <c r="X20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>400</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>100</v>
       </c>
       <c r="AC20" s="3">
         <v>100</v>
@@ -1735,135 +1768,141 @@
       <c r="AD20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>233200</v>
+      </c>
+      <c r="E21" s="3">
         <v>198500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>208000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>263700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>590600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>283900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>223400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>192400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>422500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>161900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>110700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>126800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>185500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>73100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>71000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>88100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>157100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>66400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>60400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>73100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>75700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>58900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>55500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>66300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>113800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>46400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>48200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>54100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E22" s="3">
         <v>3100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3300</v>
       </c>
       <c r="I22" s="3">
         <v>3300</v>
       </c>
       <c r="J22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1900</v>
       </c>
       <c r="Q22" s="3">
         <v>1900</v>
@@ -1872,215 +1911,224 @@
         <v>1900</v>
       </c>
       <c r="S22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T22" s="3">
         <v>4900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>197500</v>
+      </c>
+      <c r="E23" s="3">
         <v>164500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>173000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>230700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>531100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>254100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>193100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>163400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>369900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>136000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>88100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>105700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>147200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>53900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>51600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>69000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>120100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>47600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>40900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>55300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>58600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>43200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>40300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>50900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>84800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>32400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>34100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E24" s="3">
         <v>39000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>41200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>58600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>130100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>61000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>46100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>37600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>90300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>26800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>17300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>9600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>16300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>28600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>10800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>11900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2165,180 +2213,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>150800</v>
+      </c>
+      <c r="E26" s="3">
         <v>125600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>131900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>172100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>401000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>193100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>147000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>125700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>279600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>104300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>64800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>78900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>110300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>40600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>38700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>52600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>91100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>36000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>23600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>42100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>45100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>33600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>43500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>34700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>56200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>21600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>22200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>120500</v>
+        <v>143200</v>
       </c>
       <c r="E27" s="3">
+        <v>120600</v>
+      </c>
+      <c r="F27" s="3">
         <v>127100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>160400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>377700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>182900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>133400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>117100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>267800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>61200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>75000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>103700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>39100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>36800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>50600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>87800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>34700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>21800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>40300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>43000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>32100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>40800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>33000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>53700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>20700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>20400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2423,8 +2480,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2461,8 +2521,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2479,11 +2539,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>8000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2491,11 +2551,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2509,8 +2569,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2658,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,85 +2747,88 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1600</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-200</v>
       </c>
       <c r="W32" s="3">
         <v>-200</v>
       </c>
       <c r="X32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>-100</v>
       </c>
       <c r="AC32" s="3">
         <v>-100</v>
@@ -2767,94 +2836,100 @@
       <c r="AD32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>120500</v>
+        <v>143200</v>
       </c>
       <c r="E33" s="3">
+        <v>120600</v>
+      </c>
+      <c r="F33" s="3">
         <v>127100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>160400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>377700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>182900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>133400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>117100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>267800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>61200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>75000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>103700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>39100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>36800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>50600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>87800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>34700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>29800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>40300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>43000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>32100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>30500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>33000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>53700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>20700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>20400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,185 +3014,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>120500</v>
+        <v>143200</v>
       </c>
       <c r="E35" s="3">
+        <v>120600</v>
+      </c>
+      <c r="F35" s="3">
         <v>127100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>160400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>377700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>182900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>133400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>117100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>267800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>61200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>75000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>103700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>39100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>36800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>50600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>87800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>34700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>29800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>40300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>43000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>32100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>30500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>33000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>53700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>20700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>20400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44828</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3232,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,524 +3265,543 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>702100</v>
+      </c>
+      <c r="E41" s="3">
         <v>423300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>559400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>449100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>138100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>73800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>286700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>138600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>44400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>436500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>346200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>32100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>168300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>64500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>27300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>26300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>27500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>25300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>28300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>22000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>24600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>31000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>34100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E42" s="3">
         <v>37500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>36000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>33100</v>
-      </c>
-      <c r="G42" s="3">
-        <v>35500</v>
       </c>
       <c r="H42" s="3">
         <v>35500</v>
       </c>
       <c r="I42" s="3">
+        <v>35500</v>
+      </c>
+      <c r="J42" s="3">
         <v>36500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>33700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>33800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>31400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>24300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>20500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>17800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>18500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>17000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>16800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>16200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>15800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>11300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>10800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>10400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>5900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>10300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>819300</v>
+      </c>
+      <c r="E43" s="3">
         <v>814800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>657500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>915000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1066000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1102100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>748200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>801900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>984800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>811500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>480500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>587200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>527300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>469200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>382000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>483000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>489600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>456600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>364500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>469200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>497000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>432800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>335000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>422500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>398500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>368800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>293700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>351200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>821200</v>
+      </c>
+      <c r="E44" s="3">
         <v>960300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>973200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1006900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1106300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1230400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>963300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>900700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1026500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>823400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>567300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>528700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>459400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>510700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>486900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>479400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>528700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>580200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>556200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>510100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>531900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>521700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>460300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>412500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>438400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>472000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>397200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>369900</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E45" s="3">
         <v>31000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>47900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>33100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>29500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>30100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>31100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>37300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>48200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>41600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>33400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>32500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>25400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>41700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>53200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>28600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>20700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>22900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>21600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>21100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2415100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2267000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2262100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2436400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2376400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2472400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2073500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1922800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2122500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1737100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1538400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1512100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1236600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1060900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1093100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1092100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1097100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1103500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>995300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1046900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1112600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1043700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>863500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>888600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>894900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>899300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>756400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>790800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3782,180 +3886,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>823900</v>
+      </c>
+      <c r="E48" s="3">
         <v>816700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>796500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>745000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>733000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>700800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>685700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>647400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>630800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>586800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>494400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>483400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>478600</v>
       </c>
       <c r="P48" s="3">
         <v>478600</v>
       </c>
       <c r="Q48" s="3">
+        <v>478600</v>
+      </c>
+      <c r="R48" s="3">
         <v>467300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>460400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>439200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>422300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>354700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>346300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>340700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>313600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>328600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>325100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>316000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>309900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>297900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>284500</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>481900</v>
+      </c>
+      <c r="E49" s="3">
         <v>487100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>488600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>440400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>445800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>445200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>431400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>393700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>424100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>415400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>331800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>311500</v>
-      </c>
-      <c r="O49" s="3">
-        <v>300000</v>
       </c>
       <c r="P49" s="3">
         <v>300000</v>
       </c>
       <c r="Q49" s="3">
+        <v>300000</v>
+      </c>
+      <c r="R49" s="3">
         <v>285200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>286600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>273800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>271300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>273000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>261700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>263000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>254500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>255000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>255700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>253500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>250200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>227600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>224200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4153,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,94 +4242,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E52" s="3">
         <v>126000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>124900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>116800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>55600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>55500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>54600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>50400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>50900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>46900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>40300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>43600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>43400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>43500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>43900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>41500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>40500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>24400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>24600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>22300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>20300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>19600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>17600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>17500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>17700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>18300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>10200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,94 +4420,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3843900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3696800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3672100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3738500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3610800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3674000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3245300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3014200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3228300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2786100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2404900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2350600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2058600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1883000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1889500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1880600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1850700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1821400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1647500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1677200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1736600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1631500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1464700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1486900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1482000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1477700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1292100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1310600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4544,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,129 +4577,133 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>264400</v>
+      </c>
+      <c r="E57" s="3">
         <v>278000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>206900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>323400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>386800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>426000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>319100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>292900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>359500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>299400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>211500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>231100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>199300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>162000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>142500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>180800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>189600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>170700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>136900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>175900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>197400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>176500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>140100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>171800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>160300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>156000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>124700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>3000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>45700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>52400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>104600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>59700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>34300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>47200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2800</v>
       </c>
       <c r="O58" s="3">
         <v>2800</v>
@@ -4582,390 +4715,405 @@
         <v>2800</v>
       </c>
       <c r="R58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>25100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>18900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>27500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>31300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>34200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>30500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>27200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>28800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>25100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>23800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>22400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>289200</v>
+      </c>
+      <c r="E59" s="3">
         <v>249400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>402000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>433700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>384700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>372600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>397200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>361800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>337500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>264400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>252100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>259700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>233100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>164400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>208700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>204500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>164800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>131000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>145800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>151100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>138800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>106200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>136000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>138400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>126200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>98000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>124700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>556000</v>
+      </c>
+      <c r="E60" s="3">
         <v>530400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>611800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>802900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>824000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>903200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>776000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>665700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>731300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>611000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>463700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>493600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>435200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>329300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>354000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>385400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>379600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>320600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>310200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>358300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>370400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>313100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>303200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>339000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>311600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>277800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>271800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>310200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>274800</v>
+      </c>
+      <c r="E61" s="3">
         <v>275000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>275200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>275400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>276300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>379000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>277600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>310100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>571900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>426300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>311600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>311300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>161100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>160600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>160900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>162900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>187500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>266400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>202100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>186500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>276300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>261300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>144700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>145900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>204800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>252900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>109100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>171300</v>
+      </c>
+      <c r="E62" s="3">
         <v>179000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>181400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>184000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>185400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>173600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>175100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>161000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>165500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>162200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>146400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>131900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>123000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>120900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>116800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>103200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>100300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>96000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>46600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>40600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>42300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>40100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>42700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>52000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>49300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>49600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>50800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5198,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5136,8 +5287,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,94 +5376,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1040600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1021000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1108100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1301500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1330700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1496100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1266700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1163500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1491800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1219900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>944600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>953000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>734200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>622300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>645800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>665200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>683300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>698500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>574100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>601100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>704100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>629900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>505200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>551100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>580300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>593100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>442900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>473700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5500,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5587,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5676,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5598,8 +5765,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,94 +5854,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2408300</v>
+      </c>
+      <c r="E72" s="3">
         <v>2293000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2217400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2102800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1950900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1851800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1678100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1552600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1440800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1276700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1182700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1127400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1057800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>999000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>995000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>969600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>917700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>875500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>839900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>841400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>800200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>768200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>736200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>715500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>684800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>670100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>649100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>637500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6032,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6121,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,94 +6210,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2803400</v>
+      </c>
+      <c r="E76" s="3">
         <v>2675800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2564000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2437100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2280100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2177900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1978600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1850800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1736500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1566200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1460300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1397600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1324400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1260700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1243700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1215500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1167400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1122900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1073400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1076100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1032500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1001600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>959500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>935800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>901700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>884500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>849200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>837000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,185 +6388,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44828</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>120500</v>
+        <v>143200</v>
       </c>
       <c r="E81" s="3">
+        <v>120600</v>
+      </c>
+      <c r="F81" s="3">
         <v>127100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>160400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>377700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>182900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>133400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>117100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>267800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>61200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>75000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>103700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>39100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>36800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>50600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>87800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>34700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>29800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>40300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>43000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>32100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>30500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>33000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>53700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>20700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>20400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,94 +6606,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E83" s="3">
         <v>30800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>29600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>52800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>26500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>27000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>45500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>18600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>17500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>17200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>16600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>14900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>25600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>12500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>12700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6782,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6871,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6960,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7049,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,94 +7138,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>358100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>298500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>442600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>90400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-245000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>230700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>397500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-115700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-196700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>151400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>37900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>147200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>151200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>127100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>70900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-55800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>56600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>96200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>48100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-84200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>39200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>82100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>15200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-70700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>36100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,94 +7262,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-60400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-42100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-39600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-32100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-41100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-79000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-46700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-42500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-21300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-30000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-24400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-13900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-22600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-34500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-16500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-71800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7438,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,94 +7527,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-41900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-131300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-103800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-118800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-59700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-82900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-514000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-296500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-53800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-66200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-48200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-36100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-58200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-47700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-35600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-22500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-64400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-21500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-99900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-70600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-27000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-170800</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,68 +7651,69 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-15600</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-15400</v>
       </c>
       <c r="F96" s="3">
         <v>-15400</v>
       </c>
       <c r="G96" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="H96" s="3">
         <v>-28000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-12500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-12400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-9300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-18600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9300</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-7600</v>
       </c>
       <c r="N96" s="3">
         <v>-7600</v>
       </c>
       <c r="O96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="P96" s="3">
         <v>-15400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-12300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-12300</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-11000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7488,25 +7721,28 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-10400</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-9200</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7827,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7916,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,262 +8005,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-59400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-58600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-125000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>86300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-271500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>237900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>101900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>142200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-47000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-39700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-25000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-30300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>61100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-19400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-91000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>111600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-16500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-63300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>74500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>141700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-10800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>278800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-135600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>109800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>311100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-152400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-216700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>135000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>111300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-391700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-391600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>89700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>145600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>32600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-135800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>103400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>43700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-16900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-13500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>28900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>5900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-9000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-50800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UFPI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>UFPI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,395 +665,408 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44828</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2043900</v>
+        <v>1827600</v>
       </c>
       <c r="E8" s="3">
+        <v>3866400</v>
+      </c>
+      <c r="F8" s="3">
         <v>1822500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1913700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2322900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5390200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2489300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2016800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2093800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4525500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1825000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1393700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1486200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2274100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1032100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>998000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1163000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2254900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1015100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>988200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1212700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1294400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>993900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>966100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1056600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1918500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>846100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>859600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>826700</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1643900</v>
+        <v>1463200</v>
       </c>
       <c r="E9" s="3">
+        <v>3108000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1464100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1556200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1872700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4408400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2011000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1645200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1766200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3817700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1538500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1206700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1245200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1901900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>864800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>840800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>975800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1914000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>860900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>850500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1054000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1128800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>863000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>836900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>911900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1649500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>725400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>737300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>400000</v>
+        <v>364400</v>
       </c>
       <c r="E10" s="3">
+        <v>758400</v>
+      </c>
+      <c r="F10" s="3">
         <v>358400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>357500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>450200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>981800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>478400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>371600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>327600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>707800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>286600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>187000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>241000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>372200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>167300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>157200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>187200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>341000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>154200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>137700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>158700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>165600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>130900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>129200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>144700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>269000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>120700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>122300</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1085,8 +1098,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1174,8 +1188,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,8 +1280,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1352,8 +1372,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1441,8 +1464,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1471,186 +1497,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1850400</v>
+        <v>1660300</v>
       </c>
       <c r="E17" s="3">
+        <v>3511200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1660800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1745100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2085800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4845600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2230300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1821800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1925700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4151100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1687500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1305500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1379600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2123100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>973400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>946300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1092600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2132300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>966700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>942700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1155700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1233800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>949600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>924600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1004300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1830800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>812300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>824300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>783100</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>193500</v>
+        <v>167300</v>
       </c>
       <c r="E18" s="3">
+        <v>355200</v>
+      </c>
+      <c r="F18" s="3">
         <v>161700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>168600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>237100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>544600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>259000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>195000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>168100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>374400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>137500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>88200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>106600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>151000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>58700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>51700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>70400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>122600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>48400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>45500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>57000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>60600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>44300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>41500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>52300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>87700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>33800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>35300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1682,88 +1715,89 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7300</v>
+        <v>9400</v>
       </c>
       <c r="E20" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F20" s="3">
         <v>5900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="W20" s="3">
-        <v>200</v>
       </c>
       <c r="X20" s="3">
         <v>200</v>
       </c>
       <c r="Y20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>400</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>100</v>
       </c>
       <c r="AD20" s="3">
         <v>100</v>
@@ -1771,141 +1805,147 @@
       <c r="AE20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>233200</v>
+        <v>209300</v>
       </c>
       <c r="E21" s="3">
+        <v>431600</v>
+      </c>
+      <c r="F21" s="3">
         <v>198500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>208000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>263700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>590600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>283900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>223400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>192400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>422500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>161900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>110700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>126800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>185500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>73100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>71000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>88100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>157100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>66400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>60400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>73100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>75700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>58900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>55500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>66300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>113800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>46400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>48200</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>54100</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F22" s="3">
         <v>3100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3300</v>
       </c>
       <c r="J22" s="3">
         <v>3300</v>
       </c>
       <c r="K22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L22" s="3">
         <v>3400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1900</v>
       </c>
       <c r="R22" s="3">
         <v>1900</v>
@@ -1914,221 +1954,230 @@
         <v>1900</v>
       </c>
       <c r="T22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U22" s="3">
         <v>4900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1500</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>1300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>197500</v>
+        <v>173500</v>
       </c>
       <c r="E23" s="3">
+        <v>362100</v>
+      </c>
+      <c r="F23" s="3">
         <v>164500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>173000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>230700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>531100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>254100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>193100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>163400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>369900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>136000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>88100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>105700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>147200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>53900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>51600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>69000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>120100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>47600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>40900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>55300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>58600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>43200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>40300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>50900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>84800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>32400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>34100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46700</v>
+        <v>39300</v>
       </c>
       <c r="E24" s="3">
+        <v>85700</v>
+      </c>
+      <c r="F24" s="3">
         <v>39000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>41200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>58600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>130100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>61000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>46100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>90300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>26800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>16400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>17300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>9600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>16300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>28600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>10800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>11900</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2216,186 +2265,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>150800</v>
+        <v>134200</v>
       </c>
       <c r="E26" s="3">
+        <v>276400</v>
+      </c>
+      <c r="F26" s="3">
         <v>125600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>131900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>172100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>401000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>193100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>147000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>125700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>279600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>104300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>64800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>78900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>110300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>52600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>91100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>36000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>23600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>42100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>45100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>33600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>43500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>34700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>56200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>21600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>22200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>143200</v>
+        <v>127300</v>
       </c>
       <c r="E27" s="3">
+        <v>263700</v>
+      </c>
+      <c r="F27" s="3">
         <v>120600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>127100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>160400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>377700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>182900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>133400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>117100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>267800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>61200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>75000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>103700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>39100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>36800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>50600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>87800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>34700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>21800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>40300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>43000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>32100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>40800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>33000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>53700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>20700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>20400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2483,8 +2541,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2524,8 +2585,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2542,11 +2603,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>8000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2554,11 +2615,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-10300</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2572,8 +2633,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2661,8 +2725,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2750,88 +2817,91 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7300</v>
+        <v>-9400</v>
       </c>
       <c r="E32" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1600</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-200</v>
       </c>
       <c r="X32" s="3">
         <v>-200</v>
       </c>
       <c r="Y32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-400</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>-100</v>
       </c>
       <c r="AD32" s="3">
         <v>-100</v>
@@ -2839,97 +2909,103 @@
       <c r="AE32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>143200</v>
+        <v>127300</v>
       </c>
       <c r="E33" s="3">
+        <v>263700</v>
+      </c>
+      <c r="F33" s="3">
         <v>120600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>127100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>160400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>377700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>182900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>133400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>117100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>267800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>61200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>75000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>103700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>39100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>36800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>50600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>87800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>34700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>29800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>40300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>43000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>32100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>30500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>33000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>53700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>20700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>20400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3017,191 +3093,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>143200</v>
+        <v>127300</v>
       </c>
       <c r="E35" s="3">
+        <v>263700</v>
+      </c>
+      <c r="F35" s="3">
         <v>120600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>127100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>160400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>377700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>182900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>133400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>117100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>267800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>61200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>75000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>103700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>39100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>36800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>50600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>87800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>34700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>29800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>40300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>43000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>32100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>30500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>33000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>53700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>20700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>20400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44828</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3233,8 +3318,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3266,542 +3352,561 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>957100</v>
+      </c>
+      <c r="E41" s="3">
         <v>702100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>423300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>559400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>449100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>138100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>73800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>286700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>138600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>44300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>44400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>436500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>346200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>32100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>168300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>64500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>27300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>26300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>27500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>25300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>28300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>22000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>24600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>31000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>34100</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E42" s="3">
         <v>38500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>37500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>36000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>33100</v>
-      </c>
-      <c r="H42" s="3">
-        <v>35500</v>
       </c>
       <c r="I42" s="3">
         <v>35500</v>
       </c>
       <c r="J42" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K42" s="3">
         <v>36500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>33700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>33800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>31400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>24300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>20500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>17800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>18500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>17000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>16800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>16200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>15800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>14500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>10700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>11300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>10800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>10400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>5900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>10300</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>725700</v>
+      </c>
+      <c r="E43" s="3">
         <v>819300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>814800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>657500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>915000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1066000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1102100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>748200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>801900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>984800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>811500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>480500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>587200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>527300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>469200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>382000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>483000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>489600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>456600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>364500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>469200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>497000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>432800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>335000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>422500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>398500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>368800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>293700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>351200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>744700</v>
+      </c>
+      <c r="E44" s="3">
         <v>821200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>960300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>973200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1006900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1106300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1230400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>963300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>900700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1026500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>823400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>567300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>528700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>459400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>510700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>486900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>479400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>528700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>580200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>556200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>510100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>531900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>521700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>460300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>412500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>438400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>472000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>397200</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>369900</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E45" s="3">
         <v>34000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>35900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>32200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>38800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>47900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>29700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>30100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>31100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>37300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>48200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>41600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>33400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>32500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>25400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>41700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>53200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>28600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>20700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>22900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>21600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>21100</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2505100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2415100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2267000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2262100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2436400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2376400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2472400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2073500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1922800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2122500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1737100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1538400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1512100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1236600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1060900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1093100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1092100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1097100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1103500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>995300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1046900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1112600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1043700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>863500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>888600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>894900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>899300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>756400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>790800</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3889,186 +3994,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>845200</v>
+      </c>
+      <c r="E48" s="3">
         <v>823900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>816700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>796500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>745000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>733000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>700800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>685700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>647400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>630800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>586800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>494400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>483400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>478600</v>
       </c>
       <c r="Q48" s="3">
         <v>478600</v>
       </c>
       <c r="R48" s="3">
+        <v>478600</v>
+      </c>
+      <c r="S48" s="3">
         <v>467300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>460400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>439200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>422300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>354700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>346300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>340700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>313600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>328600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>325100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>316000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>309900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>297900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>284500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>476300</v>
+      </c>
+      <c r="E49" s="3">
         <v>481900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>487100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>488600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>440400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>445800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>445200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>431400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>393700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>424100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>415400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>331800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>311500</v>
-      </c>
-      <c r="P49" s="3">
-        <v>300000</v>
       </c>
       <c r="Q49" s="3">
         <v>300000</v>
       </c>
       <c r="R49" s="3">
+        <v>300000</v>
+      </c>
+      <c r="S49" s="3">
         <v>285200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>286600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>273800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>271300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>273000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>261700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>263000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>254500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>255000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>255700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>253500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>250200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>227600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>224200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4156,8 +4270,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4245,97 +4362,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>177500</v>
+      </c>
+      <c r="E52" s="3">
         <v>123000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>126000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>124900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>116800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>55600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>55500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>54600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>50400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>50900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>46900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>40300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>43600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>43400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>43500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>43900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>41500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>40500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>24400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>24600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>22300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>20300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>19600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>17600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>17500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>17700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>18300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>10200</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4423,97 +4546,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4004100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3843900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3696800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3672100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3738500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3610800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3674000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3245300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3014200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3228300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2786100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2404900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2350600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2058600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1883000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1889500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1880600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1850700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1821400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1647500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1677200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1736600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1631500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1464700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1486900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1482000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1477700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1292100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1310600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4545,8 +4674,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4578,135 +4708,139 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>253100</v>
+      </c>
+      <c r="E57" s="3">
         <v>264400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>278000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>206900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>323400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>386800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>426000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>319100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>292900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>359500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>299400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>211500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>231100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>199300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>162000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>142500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>180800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>189600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>170700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>136900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>175900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>197400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>176500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>140100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>171800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>160300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>156000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>124700</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>45700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>52400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>104600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>59700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>34300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>47200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>2800</v>
       </c>
       <c r="P58" s="3">
         <v>2800</v>
@@ -4718,402 +4852,417 @@
         <v>2800</v>
       </c>
       <c r="S58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>25100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>18900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>27500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>31300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>34200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>30500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>27200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>28800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>25100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>23800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>22400</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>347200</v>
+      </c>
+      <c r="E59" s="3">
         <v>289200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>249400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>402000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>433700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>384700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>372600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>397200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>361800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>337500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>264400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>252100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>259700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>233100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>164400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>208700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>204500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>164800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>131000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>145800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>151100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>138800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>106200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>136000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>138400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>126200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>98000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>124700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>601800</v>
+      </c>
+      <c r="E60" s="3">
         <v>556000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>530400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>611800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>802900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>824000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>903200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>776000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>665700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>731300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>611000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>463700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>493600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>435200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>329300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>354000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>385400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>379600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>320600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>310200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>358300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>370400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>313100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>303200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>339000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>311600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>277800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>271800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>310200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>273300</v>
+      </c>
+      <c r="E61" s="3">
         <v>274800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>275000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>275200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>275400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>276300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>379000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>277600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>310100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>571900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>426300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>311600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>311300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>161100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>160600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>160900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>162900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>187500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>266400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>202100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>186500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>276300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>261300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>144700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>145900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>204800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>252900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>109100</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>173400</v>
+      </c>
+      <c r="E62" s="3">
         <v>171300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>179000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>181400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>184000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>185400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>173600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>175100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>161000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>165500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>162200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>146400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>131900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>123000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>120900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>116800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>103200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>100300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>96000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>46600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>40600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>42300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>40100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>42700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>52000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>49300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>49600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>50800</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5201,8 +5350,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5290,8 +5442,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5379,97 +5534,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1084700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1040600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1021000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1108100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1301500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1330700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1496100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1266700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1163500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1491800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1219900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>944600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>953000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>734200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>622300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>645800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>665200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>683300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>698500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>574100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>601100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>704100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>629900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>505200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>551100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>580300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>593100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>442900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>473700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5501,8 +5662,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5590,8 +5752,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5679,8 +5844,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5768,8 +5936,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5857,97 +6028,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2517300</v>
+      </c>
+      <c r="E72" s="3">
         <v>2408300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2293000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2217400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2102800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1950900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1851800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1678100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1552600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1440800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1276700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1182700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1127400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1057800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>999000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>995000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>969600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>917700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>875500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>839900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>841400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>800200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>768200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>736200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>715500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>684800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>670100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>649100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>637500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6035,8 +6212,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6124,8 +6304,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6213,97 +6396,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2919400</v>
+      </c>
+      <c r="E76" s="3">
         <v>2803400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2675800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2564000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2437100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2280100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2177900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1978600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1850800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1736500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1566200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1460300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1397600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1324400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1260700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1243700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1215500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1167400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1122900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1073400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1076100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1032500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1001600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>959500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>935800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>901700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>884500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>849200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>837000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6391,191 +6580,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44828</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>143200</v>
+        <v>127300</v>
       </c>
       <c r="E81" s="3">
+        <v>263700</v>
+      </c>
+      <c r="F81" s="3">
         <v>120600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>127100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>160400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>377700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>182900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>133400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>117100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>267800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>61200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>75000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>103700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>39100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>36800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>50600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>87800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>34700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>29800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>40300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>43000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>32100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>30500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>33000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>53700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>20700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>20400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6607,97 +6805,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>32400</v>
+        <v>32600</v>
       </c>
       <c r="E83" s="3">
+        <v>63200</v>
+      </c>
+      <c r="F83" s="3">
         <v>30800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>29600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>52800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>26500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>27000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>45500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>18600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>17300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>17500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>17200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>32100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>16300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>16600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>14900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>13900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>25600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>12500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>12700</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6785,8 +6987,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6874,8 +7079,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6963,8 +7171,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7052,8 +7263,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7141,97 +7355,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>358100</v>
+        <v>390700</v>
       </c>
       <c r="E89" s="3">
+        <v>321100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-37100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>298500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>442600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>90400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-245000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>230700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>397500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-115700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-196700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>151400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>37900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>147200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-46200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>151200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>127100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>70900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-55800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>56600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>96200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>48100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-84200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>39200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>82100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>15200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-70700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>36100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>96300</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7263,97 +7483,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-46800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-60400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-42100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-39600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-32100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-79000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-46700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-42500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-21300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-20200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-30000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-24400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-13900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-22600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-34500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-16500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-71800</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7441,8 +7665,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7530,97 +7757,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-43500</v>
+        <v>-102200</v>
       </c>
       <c r="E94" s="3">
+        <v>-85300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-41900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-131300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-103800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-118800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-59700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-82900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-514000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-296500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-53800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-34700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-66200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-48200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-36100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-58200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-47700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-15600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-35600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-22500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-64400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-16300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-21500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-99900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-70600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-27000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-170800</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7652,71 +7885,72 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-15500</v>
+        <v>-18600</v>
       </c>
       <c r="E96" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-15600</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-15400</v>
       </c>
       <c r="G96" s="3">
         <v>-15400</v>
       </c>
       <c r="H96" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="I96" s="3">
         <v>-28000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-12500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-12400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-18600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9300</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-7600</v>
       </c>
       <c r="O96" s="3">
         <v>-7600</v>
       </c>
       <c r="P96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-7700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-12300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-12300</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-11000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -7724,25 +7958,28 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-10400</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-9200</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-9200</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7830,8 +8067,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7919,8 +8159,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8008,271 +8251,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-37700</v>
+        <v>-29200</v>
       </c>
       <c r="E100" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-59400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-58600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-125000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>86300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-271500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>237900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>101900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>142200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-47000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-39700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-12000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-25000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-30300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>61100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-19400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-91000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>111600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-16500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-63300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>74500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>141700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-10800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1800</v>
+        <v>-1400</v>
       </c>
       <c r="E101" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F101" s="3">
         <v>2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>900</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>278800</v>
+        <v>257900</v>
       </c>
       <c r="E102" s="3">
+        <v>143300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-135600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>109800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>311100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-152400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-216700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>135000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>111300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-391700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-391600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>89700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>145600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>32600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-135800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>103400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>43700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-16900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-13500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>28900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-9000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-50800</v>
       </c>
     </row>
